--- a/test_data/zeros4291images/10%procent/17_bins_canny_zeros/test_data.xlsx
+++ b/test_data/zeros4291images/10%procent/17_bins_canny_zeros/test_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D431"/>
+  <dimension ref="A1:D405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>43.87576311155496</v>
+        <v>18.39152097767976</v>
       </c>
       <c r="D2" t="n">
-        <v>18.12423688844504</v>
+        <v>1.608479022320239</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>37.22909837808736</v>
+        <v>13.35103628227715</v>
       </c>
       <c r="D3" t="n">
-        <v>7.229098378087365</v>
+        <v>3.35103628227715</v>
       </c>
     </row>
     <row r="4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>63.40626054119416</v>
+        <v>22.9392684704172</v>
       </c>
       <c r="D4" t="n">
-        <v>11.59373945880584</v>
+        <v>12.9392684704172</v>
       </c>
     </row>
     <row r="5">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>69.31827999980047</v>
+        <v>56.82521714660719</v>
       </c>
       <c r="D5" t="n">
-        <v>5.681720000199533</v>
+        <v>6.825217146607194</v>
       </c>
     </row>
     <row r="6">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40.51248213838134</v>
+        <v>35.77612289878718</v>
       </c>
       <c r="D6" t="n">
-        <v>21.48751786161866</v>
+        <v>5.776122898787179</v>
       </c>
     </row>
     <row r="7">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>7.301587482844909</v>
+        <v>1.818622506444613</v>
       </c>
       <c r="D7" t="n">
-        <v>2.698412517155091</v>
+        <v>1.818622506444613</v>
       </c>
     </row>
     <row r="8">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>46.7683963663619</v>
+        <v>3.305620169996054</v>
       </c>
       <c r="D8" t="n">
-        <v>6.768396366361898</v>
+        <v>3.305620169996054</v>
       </c>
     </row>
     <row r="9">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>55.52098895671944</v>
+        <v>20.03187886201092</v>
       </c>
       <c r="D9" t="n">
-        <v>5.520988956719435</v>
+        <v>9.968121137989083</v>
       </c>
     </row>
     <row r="10">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C10" t="n">
-        <v>60.95680028658524</v>
+        <v>54.15159051579078</v>
       </c>
       <c r="D10" t="n">
-        <v>10.95680028658524</v>
+        <v>7.84840948420922</v>
       </c>
     </row>
     <row r="11">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>22.01486518795615</v>
+        <v>11.80810569434306</v>
       </c>
       <c r="D11" t="n">
-        <v>2.014865187956147</v>
+        <v>1.808105694343062</v>
       </c>
     </row>
     <row r="12">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>3.869061731278857</v>
+        <v>10.91456791365041</v>
       </c>
       <c r="D12" t="n">
-        <v>3.869061731278857</v>
+        <v>0.9145679136504086</v>
       </c>
     </row>
     <row r="13">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>58.13499172340718</v>
+        <v>49.17090119744144</v>
       </c>
       <c r="D13" t="n">
-        <v>3.865008276592825</v>
+        <v>0.8290988025585619</v>
       </c>
     </row>
     <row r="14">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>65.93183425911586</v>
+        <v>22.33399627562718</v>
       </c>
       <c r="D14" t="n">
-        <v>9.06816574088414</v>
+        <v>12.33399627562718</v>
       </c>
     </row>
     <row r="15">
@@ -573,10 +573,10 @@
         <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>24.64131049688644</v>
+        <v>29.68740732786603</v>
       </c>
       <c r="D15" t="n">
-        <v>15.35868950311356</v>
+        <v>10.31259267213397</v>
       </c>
     </row>
     <row r="16">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>54.05010683616731</v>
+        <v>55.37119931081799</v>
       </c>
       <c r="D16" t="n">
-        <v>14.05010683616731</v>
+        <v>6.628800689182015</v>
       </c>
     </row>
     <row r="17">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>58.15361293472937</v>
+        <v>1.042131771212573</v>
       </c>
       <c r="D17" t="n">
-        <v>3.846387065270626</v>
+        <v>1.042131771212573</v>
       </c>
     </row>
     <row r="18">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>56.98997528611008</v>
+        <v>21.04690606069525</v>
       </c>
       <c r="D18" t="n">
-        <v>5.010024713889919</v>
+        <v>11.04690606069525</v>
       </c>
     </row>
     <row r="19">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>10.47425467526623</v>
+        <v>33.42178863399673</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4742546752662271</v>
+        <v>3.421788633996734</v>
       </c>
     </row>
     <row r="20">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.422186010132201</v>
+        <v>38.47440528741823</v>
       </c>
       <c r="D20" t="n">
-        <v>14.4221860101322</v>
+        <v>8.474405287418229</v>
       </c>
     </row>
     <row r="21">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C21" t="n">
-        <v>3.914098724887536</v>
+        <v>44.31003162674994</v>
       </c>
       <c r="D21" t="n">
-        <v>3.914098724887536</v>
+        <v>5.689968373250061</v>
       </c>
     </row>
     <row r="22">
@@ -671,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>16.20961400851258</v>
+        <v>13.77267794333644</v>
       </c>
       <c r="D22" t="n">
-        <v>6.209614008512585</v>
+        <v>3.77267794333644</v>
       </c>
     </row>
     <row r="23">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C23" t="n">
-        <v>35.14800536432588</v>
+        <v>42.7056604547225</v>
       </c>
       <c r="D23" t="n">
-        <v>5.148005364325883</v>
+        <v>19.2943395452775</v>
       </c>
     </row>
     <row r="24">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>41.63617954574213</v>
+        <v>2.183840678618507</v>
       </c>
       <c r="D24" t="n">
-        <v>8.363820454257869</v>
+        <v>2.183840678618507</v>
       </c>
     </row>
     <row r="25">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C25" t="n">
-        <v>10.94785945892103</v>
+        <v>38.03325310060125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9478594589210338</v>
+        <v>11.96674689939875</v>
       </c>
     </row>
     <row r="26">
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>1.579371456453839</v>
+        <v>36.7391083632666</v>
       </c>
       <c r="D26" t="n">
-        <v>8.420628543546162</v>
+        <v>6.739108363266602</v>
       </c>
     </row>
     <row r="27">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C27" t="n">
-        <v>8.598042259351624</v>
+        <v>62.54492107794964</v>
       </c>
       <c r="D27" t="n">
-        <v>1.401957740648376</v>
+        <v>12.54492107794964</v>
       </c>
     </row>
     <row r="28">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C28" t="n">
-        <v>28.23749812458686</v>
+        <v>39.67597768145462</v>
       </c>
       <c r="D28" t="n">
-        <v>46.76250187541314</v>
+        <v>0.3240223185453814</v>
       </c>
     </row>
     <row r="29">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C29" t="n">
-        <v>40.72443873755364</v>
+        <v>62.90437493573653</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7244387375536405</v>
+        <v>12.09562506426347</v>
       </c>
     </row>
     <row r="30">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C30" t="n">
-        <v>2.70738876299388</v>
+        <v>24.17396487305972</v>
       </c>
       <c r="D30" t="n">
-        <v>2.70738876299388</v>
+        <v>4.173964873059724</v>
       </c>
     </row>
     <row r="31">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C31" t="n">
-        <v>38.78351673891326</v>
+        <v>38.71755177307372</v>
       </c>
       <c r="D31" t="n">
-        <v>11.21648326108674</v>
+        <v>23.28244822692628</v>
       </c>
     </row>
     <row r="32">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C32" t="n">
-        <v>47.82401906437574</v>
+        <v>27.91913045493246</v>
       </c>
       <c r="D32" t="n">
-        <v>7.82401906437574</v>
+        <v>7.919130454932464</v>
       </c>
     </row>
     <row r="33">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>3.027210982027657</v>
+        <v>33.9903913331622</v>
       </c>
       <c r="D33" t="n">
-        <v>3.027210982027657</v>
+        <v>13.9903913331622</v>
       </c>
     </row>
     <row r="34">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" t="n">
-        <v>53.72033359834078</v>
+        <v>43.94289226151071</v>
       </c>
       <c r="D34" t="n">
-        <v>3.72033359834078</v>
+        <v>3.942892261510714</v>
       </c>
     </row>
     <row r="35">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>23.26416252170652</v>
+        <v>32.72981479704666</v>
       </c>
       <c r="D35" t="n">
-        <v>16.73583747829348</v>
+        <v>2.729814797046657</v>
       </c>
     </row>
     <row r="36">
@@ -867,10 +867,10 @@
         <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>17.12085189564825</v>
+        <v>5.089829311982999</v>
       </c>
       <c r="D36" t="n">
-        <v>7.120851895648251</v>
+        <v>4.910170688017001</v>
       </c>
     </row>
     <row r="37">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C37" t="n">
-        <v>35.54576141017561</v>
+        <v>18.58360877134361</v>
       </c>
       <c r="D37" t="n">
-        <v>5.545761410175615</v>
+        <v>1.416391228656387</v>
       </c>
     </row>
     <row r="38">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>44.7794200497272</v>
+        <v>1.50936053103332</v>
       </c>
       <c r="D38" t="n">
-        <v>5.2205799502728</v>
+        <v>1.50936053103332</v>
       </c>
     </row>
     <row r="39">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>54.39345685553914</v>
+        <v>-0.8786434513786892</v>
       </c>
       <c r="D39" t="n">
-        <v>4.393456855539142</v>
+        <v>0.8786434513786892</v>
       </c>
     </row>
     <row r="40">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C40" t="n">
-        <v>55.76931262422885</v>
+        <v>34.63656459259976</v>
       </c>
       <c r="D40" t="n">
-        <v>25.76931262422885</v>
+        <v>15.36343540740024</v>
       </c>
     </row>
     <row r="41">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C41" t="n">
-        <v>53.7430505548418</v>
+        <v>11.30369148590163</v>
       </c>
       <c r="D41" t="n">
-        <v>23.7430505548418</v>
+        <v>1.303691485901634</v>
       </c>
     </row>
     <row r="42">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.25532673900018</v>
+        <v>48.79962925932889</v>
       </c>
       <c r="D42" t="n">
-        <v>12.74467326099982</v>
+        <v>1.200370740671111</v>
       </c>
     </row>
     <row r="43">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
-        <v>56.5864465532821</v>
+        <v>51.50724875984829</v>
       </c>
       <c r="D43" t="n">
-        <v>6.586446553282101</v>
+        <v>21.50724875984829</v>
       </c>
     </row>
     <row r="44">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C44" t="n">
-        <v>45.34773971028643</v>
+        <v>19.74995221594988</v>
       </c>
       <c r="D44" t="n">
-        <v>16.65226028971357</v>
+        <v>0.2500477840501176</v>
       </c>
     </row>
     <row r="45">
@@ -993,10 +993,10 @@
         <v>30</v>
       </c>
       <c r="C45" t="n">
-        <v>39.63427379105672</v>
+        <v>29.97927269880305</v>
       </c>
       <c r="D45" t="n">
-        <v>9.634273791056721</v>
+        <v>0.0207273011969491</v>
       </c>
     </row>
     <row r="46">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C46" t="n">
-        <v>3.944034822465469</v>
+        <v>7.820959945524244</v>
       </c>
       <c r="D46" t="n">
-        <v>3.944034822465469</v>
+        <v>2.179040054475756</v>
       </c>
     </row>
     <row r="47">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>24.5506456313538</v>
+        <v>3.659708097624788</v>
       </c>
       <c r="D47" t="n">
-        <v>5.449354368646201</v>
+        <v>3.659708097624788</v>
       </c>
     </row>
     <row r="48">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C48" t="n">
-        <v>70.21358305571655</v>
+        <v>16.41297079565194</v>
       </c>
       <c r="D48" t="n">
-        <v>4.786416944283445</v>
+        <v>6.412970795651937</v>
       </c>
     </row>
     <row r="49">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C49" t="n">
-        <v>76.59432461867472</v>
+        <v>26.47448373989139</v>
       </c>
       <c r="D49" t="n">
-        <v>1.594324618674719</v>
+        <v>3.52551626010861</v>
       </c>
     </row>
     <row r="50">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
-        <v>38.95020481956247</v>
+        <v>53.16591225212554</v>
       </c>
       <c r="D50" t="n">
-        <v>1.049795180437535</v>
+        <v>23.16591225212554</v>
       </c>
     </row>
     <row r="51">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C51" t="n">
-        <v>4.353524839913373</v>
+        <v>26.54314385081381</v>
       </c>
       <c r="D51" t="n">
-        <v>5.646475160086627</v>
+        <v>3.456856149186191</v>
       </c>
     </row>
     <row r="52">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C52" t="n">
-        <v>35.13259555468463</v>
+        <v>61.87086905784246</v>
       </c>
       <c r="D52" t="n">
-        <v>4.867404445315366</v>
+        <v>13.12913094215754</v>
       </c>
     </row>
     <row r="53">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C53" t="n">
-        <v>37.27441957075006</v>
+        <v>66.13119089093286</v>
       </c>
       <c r="D53" t="n">
-        <v>7.274419570750055</v>
+        <v>8.868809109067143</v>
       </c>
     </row>
     <row r="54">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C54" t="n">
-        <v>42.6727111423149</v>
+        <v>49.2926068036912</v>
       </c>
       <c r="D54" t="n">
-        <v>2.672711142314895</v>
+        <v>12.7073931963088</v>
       </c>
     </row>
     <row r="55">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C55" t="n">
-        <v>28.11252388021946</v>
+        <v>46.4498648652094</v>
       </c>
       <c r="D55" t="n">
-        <v>8.112523880219456</v>
+        <v>15.5501351347906</v>
       </c>
     </row>
     <row r="56">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C56" t="n">
-        <v>58.01286170176716</v>
+        <v>26.71051456267497</v>
       </c>
       <c r="D56" t="n">
-        <v>18.01286170176716</v>
+        <v>6.710514562674973</v>
       </c>
     </row>
     <row r="57">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C57" t="n">
-        <v>57.5555220900271</v>
+        <v>34.51614015498517</v>
       </c>
       <c r="D57" t="n">
-        <v>17.4444779099729</v>
+        <v>5.483859845014834</v>
       </c>
     </row>
     <row r="58">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C58" t="n">
-        <v>37.78704990170252</v>
+        <v>54.82475431853182</v>
       </c>
       <c r="D58" t="n">
-        <v>17.78704990170252</v>
+        <v>7.175245681468176</v>
       </c>
     </row>
     <row r="59">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>69.49784592427579</v>
+        <v>9.619233741659713</v>
       </c>
       <c r="D59" t="n">
-        <v>5.502154075724206</v>
+        <v>0.3807662583402873</v>
       </c>
     </row>
     <row r="60">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C60" t="n">
-        <v>4.56930623122026</v>
+        <v>28.16110609219535</v>
       </c>
       <c r="D60" t="n">
-        <v>4.56930623122026</v>
+        <v>8.161106092195347</v>
       </c>
     </row>
     <row r="61">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>34.25881226105101</v>
+        <v>-0.4724809693505319</v>
       </c>
       <c r="D61" t="n">
-        <v>4.258812261051013</v>
+        <v>0.4724809693505319</v>
       </c>
     </row>
     <row r="62">
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>2.182413301814874</v>
+        <v>-1.877503059174362</v>
       </c>
       <c r="D62" t="n">
-        <v>2.182413301814874</v>
+        <v>1.877503059174362</v>
       </c>
     </row>
     <row r="63">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C63" t="n">
-        <v>11.17349626020146</v>
+        <v>30.3112842795058</v>
       </c>
       <c r="D63" t="n">
-        <v>1.173496260201457</v>
+        <v>10.3112842795058</v>
       </c>
     </row>
     <row r="64">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C64" t="n">
-        <v>58.57350197389211</v>
+        <v>66.60873105080071</v>
       </c>
       <c r="D64" t="n">
-        <v>3.426498026107893</v>
+        <v>8.391268949199286</v>
       </c>
     </row>
     <row r="65">
@@ -1273,10 +1273,10 @@
         <v>40</v>
       </c>
       <c r="C65" t="n">
-        <v>49.86668830369395</v>
+        <v>46.89430348185855</v>
       </c>
       <c r="D65" t="n">
-        <v>9.866688303693948</v>
+        <v>6.89430348185855</v>
       </c>
     </row>
     <row r="66">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C66" t="n">
-        <v>2.939265253140228</v>
+        <v>45.34923786118756</v>
       </c>
       <c r="D66" t="n">
-        <v>2.939265253140228</v>
+        <v>5.349237861187561</v>
       </c>
     </row>
     <row r="67">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C67" t="n">
-        <v>16.18147515970939</v>
+        <v>6.593304527251973</v>
       </c>
       <c r="D67" t="n">
-        <v>3.818524840290607</v>
+        <v>3.406695472748027</v>
       </c>
     </row>
     <row r="68">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C68" t="n">
-        <v>30.39587410798472</v>
+        <v>47.37981658677077</v>
       </c>
       <c r="D68" t="n">
-        <v>31.60412589201528</v>
+        <v>17.37981658677077</v>
       </c>
     </row>
     <row r="69">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C69" t="n">
-        <v>44.73337191059983</v>
+        <v>20.95694040748207</v>
       </c>
       <c r="D69" t="n">
-        <v>30.26662808940017</v>
+        <v>0.9569404074820724</v>
       </c>
     </row>
     <row r="70">
@@ -1343,10 +1343,10 @@
         <v>75</v>
       </c>
       <c r="C70" t="n">
-        <v>69.96507083770641</v>
+        <v>78.20183505406399</v>
       </c>
       <c r="D70" t="n">
-        <v>5.034929162293594</v>
+        <v>3.201835054063991</v>
       </c>
     </row>
     <row r="71">
@@ -1357,10 +1357,10 @@
         <v>20</v>
       </c>
       <c r="C71" t="n">
-        <v>35.71018864251704</v>
+        <v>16.2526030691291</v>
       </c>
       <c r="D71" t="n">
-        <v>15.71018864251704</v>
+        <v>3.747396930870899</v>
       </c>
     </row>
     <row r="72">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C72" t="n">
-        <v>48.35561710750648</v>
+        <v>22.77342949549089</v>
       </c>
       <c r="D72" t="n">
-        <v>8.355617107506475</v>
+        <v>2.773429495490895</v>
       </c>
     </row>
     <row r="73">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C73" t="n">
-        <v>62.64270583701819</v>
+        <v>39.96553874376553</v>
       </c>
       <c r="D73" t="n">
-        <v>12.35729416298181</v>
+        <v>9.965538743765528</v>
       </c>
     </row>
     <row r="74">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C74" t="n">
-        <v>70.71853767987611</v>
+        <v>41.29183045965926</v>
       </c>
       <c r="D74" t="n">
-        <v>4.281462320123893</v>
+        <v>20.70816954034074</v>
       </c>
     </row>
     <row r="75">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>50.46013325024315</v>
+        <v>1.255724834402577</v>
       </c>
       <c r="D75" t="n">
-        <v>10.46013325024315</v>
+        <v>1.255724834402577</v>
       </c>
     </row>
     <row r="76">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>47.62237413112062</v>
+        <v>4.65576483019398</v>
       </c>
       <c r="D76" t="n">
-        <v>2.377625868879377</v>
+        <v>4.65576483019398</v>
       </c>
     </row>
     <row r="77">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07086152699251821</v>
+        <v>40.47813443397363</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07086152699251821</v>
+        <v>20.47813443397363</v>
       </c>
     </row>
     <row r="78">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C78" t="n">
-        <v>5.34173281825295</v>
+        <v>49.54039780289375</v>
       </c>
       <c r="D78" t="n">
-        <v>4.65826718174705</v>
+        <v>9.54039780289375</v>
       </c>
     </row>
     <row r="79">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
-        <v>2.508174804426043</v>
+        <v>41.58396086290049</v>
       </c>
       <c r="D79" t="n">
-        <v>2.508174804426043</v>
+        <v>11.58396086290049</v>
       </c>
     </row>
     <row r="80">
@@ -1483,10 +1483,10 @@
         <v>62</v>
       </c>
       <c r="C80" t="n">
-        <v>52.63654714610628</v>
+        <v>51.18458381909426</v>
       </c>
       <c r="D80" t="n">
-        <v>9.363452853893719</v>
+        <v>10.81541618090574</v>
       </c>
     </row>
     <row r="81">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>57.49433582891318</v>
+        <v>4.927315856784151</v>
       </c>
       <c r="D81" t="n">
-        <v>7.494335828913179</v>
+        <v>4.927315856784151</v>
       </c>
     </row>
     <row r="82">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C82" t="n">
-        <v>52.91355856753601</v>
+        <v>34.548974012023</v>
       </c>
       <c r="D82" t="n">
-        <v>12.91355856753601</v>
+        <v>14.548974012023</v>
       </c>
     </row>
     <row r="83">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C83" t="n">
-        <v>41.18188418386477</v>
+        <v>44.58114467464828</v>
       </c>
       <c r="D83" t="n">
-        <v>11.18188418386477</v>
+        <v>5.418855325351721</v>
       </c>
     </row>
     <row r="84">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C84" t="n">
-        <v>49.90364901935881</v>
+        <v>30.54982459805202</v>
       </c>
       <c r="D84" t="n">
-        <v>12.09635098064119</v>
+        <v>9.45017540194798</v>
       </c>
     </row>
     <row r="85">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C85" t="n">
-        <v>52.36380117915409</v>
+        <v>65.63311438265004</v>
       </c>
       <c r="D85" t="n">
-        <v>9.636198820845912</v>
+        <v>9.366885617349965</v>
       </c>
     </row>
     <row r="86">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C86" t="n">
-        <v>2.70907998257546</v>
+        <v>29.37625818332751</v>
       </c>
       <c r="D86" t="n">
-        <v>2.70907998257546</v>
+        <v>9.376258183327515</v>
       </c>
     </row>
     <row r="87">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>46.0602974899822</v>
+        <v>4.406491465903612</v>
       </c>
       <c r="D87" t="n">
-        <v>6.060297489982204</v>
+        <v>4.406491465903612</v>
       </c>
     </row>
     <row r="88">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C88" t="n">
-        <v>35.28571077686468</v>
+        <v>39.50241122802678</v>
       </c>
       <c r="D88" t="n">
-        <v>39.71428922313532</v>
+        <v>9.50241122802678</v>
       </c>
     </row>
     <row r="89">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C89" t="n">
-        <v>44.70410337777314</v>
+        <v>19.80820284265267</v>
       </c>
       <c r="D89" t="n">
-        <v>17.29589662222686</v>
+        <v>0.1917971573473345</v>
       </c>
     </row>
     <row r="90">
@@ -1623,10 +1623,10 @@
         <v>20</v>
       </c>
       <c r="C90" t="n">
-        <v>25.14963808481766</v>
+        <v>28.10962383689019</v>
       </c>
       <c r="D90" t="n">
-        <v>5.149638084817663</v>
+        <v>8.109623836890194</v>
       </c>
     </row>
     <row r="91">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C91" t="n">
-        <v>37.63900203529803</v>
+        <v>50.68845355715879</v>
       </c>
       <c r="D91" t="n">
-        <v>7.639002035298034</v>
+        <v>11.31154644284121</v>
       </c>
     </row>
     <row r="92">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C92" t="n">
-        <v>79.55764726935139</v>
+        <v>57.59853383152459</v>
       </c>
       <c r="D92" t="n">
-        <v>4.557647269351392</v>
+        <v>4.401466168475409</v>
       </c>
     </row>
     <row r="93">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>39.31537120642921</v>
+        <v>3.529319850275558</v>
       </c>
       <c r="D93" t="n">
-        <v>9.315371206429205</v>
+        <v>3.529319850275558</v>
       </c>
     </row>
     <row r="94">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C94" t="n">
-        <v>44.4315258474384</v>
+        <v>49.95556363115836</v>
       </c>
       <c r="D94" t="n">
-        <v>17.5684741525616</v>
+        <v>9.955563631158363</v>
       </c>
     </row>
     <row r="95">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>54.97880106811166</v>
+        <v>10.72056191866122</v>
       </c>
       <c r="D95" t="n">
-        <v>4.978801068111657</v>
+        <v>0.7205619186612182</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C96" t="n">
-        <v>22.4288655497675</v>
+        <v>32.02072354495154</v>
       </c>
       <c r="D96" t="n">
-        <v>12.4288655497675</v>
+        <v>2.020723544951544</v>
       </c>
     </row>
     <row r="97">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C97" t="n">
-        <v>3.611064800804506</v>
+        <v>39.99824548065016</v>
       </c>
       <c r="D97" t="n">
-        <v>3.611064800804506</v>
+        <v>10.00175451934984</v>
       </c>
     </row>
     <row r="98">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C98" t="n">
-        <v>50.42938942040001</v>
+        <v>26.63590768986921</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4293894204000068</v>
+        <v>3.364092310130793</v>
       </c>
     </row>
     <row r="99">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C99" t="n">
-        <v>0.06717884860227707</v>
+        <v>45.27079890464274</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06717884860227707</v>
+        <v>4.729201095357261</v>
       </c>
     </row>
     <row r="100">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C100" t="n">
-        <v>49.10077054360415</v>
+        <v>46.87397290710143</v>
       </c>
       <c r="D100" t="n">
-        <v>12.89922945639585</v>
+        <v>6.873972907101425</v>
       </c>
     </row>
     <row r="101">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C101" t="n">
-        <v>45.97413312258821</v>
+        <v>39.43036752803804</v>
       </c>
       <c r="D101" t="n">
-        <v>16.02586687741179</v>
+        <v>19.43036752803804</v>
       </c>
     </row>
     <row r="102">
@@ -1791,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>-3.700644262445933</v>
+        <v>3.126592763105878</v>
       </c>
       <c r="D102" t="n">
-        <v>3.700644262445933</v>
+        <v>3.126592763105878</v>
       </c>
     </row>
     <row r="103">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C103" t="n">
-        <v>58.70351084774936</v>
+        <v>74.01515257565543</v>
       </c>
       <c r="D103" t="n">
-        <v>8.703510847749364</v>
+        <v>0.9848474243445651</v>
       </c>
     </row>
     <row r="104">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C104" t="n">
-        <v>37.00377992298759</v>
+        <v>49.09994475112604</v>
       </c>
       <c r="D104" t="n">
-        <v>7.00377992298759</v>
+        <v>9.099944751126039</v>
       </c>
     </row>
     <row r="105">
@@ -1830,13 +1830,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C105" t="n">
-        <v>17.13757526809915</v>
+        <v>42.46696573737701</v>
       </c>
       <c r="D105" t="n">
-        <v>2.862424731900852</v>
+        <v>7.533034262622991</v>
       </c>
     </row>
     <row r="106">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C106" t="n">
-        <v>43.80697303948273</v>
+        <v>31.40561066309188</v>
       </c>
       <c r="D106" t="n">
-        <v>18.19302696051727</v>
+        <v>11.40561066309188</v>
       </c>
     </row>
     <row r="107">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C107" t="n">
-        <v>3.750804472110529</v>
+        <v>13.90593262106306</v>
       </c>
       <c r="D107" t="n">
-        <v>3.750804472110529</v>
+        <v>3.905932621063055</v>
       </c>
     </row>
     <row r="108">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C108" t="n">
-        <v>3.464526822582058</v>
+        <v>78.06699803557834</v>
       </c>
       <c r="D108" t="n">
-        <v>3.464526822582058</v>
+        <v>3.066998035578337</v>
       </c>
     </row>
     <row r="109">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C109" t="n">
-        <v>3.362113487118622</v>
+        <v>71.35026211083618</v>
       </c>
       <c r="D109" t="n">
-        <v>6.637886512881378</v>
+        <v>3.649737889163816</v>
       </c>
     </row>
     <row r="110">
@@ -1900,13 +1900,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C110" t="n">
-        <v>1.761858011797818</v>
+        <v>76.46446314905671</v>
       </c>
       <c r="D110" t="n">
-        <v>1.761858011797818</v>
+        <v>1.464463149056712</v>
       </c>
     </row>
     <row r="111">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C111" t="n">
-        <v>50.19435841963011</v>
+        <v>37.61003553923911</v>
       </c>
       <c r="D111" t="n">
-        <v>11.80564158036989</v>
+        <v>7.610035539239107</v>
       </c>
     </row>
     <row r="112">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>40.0979044791006</v>
+        <v>12.97041242736186</v>
       </c>
       <c r="D112" t="n">
-        <v>0.09790447910059896</v>
+        <v>2.970412427361858</v>
       </c>
     </row>
     <row r="113">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C113" t="n">
-        <v>46.91699013085665</v>
+        <v>46.09651818937327</v>
       </c>
       <c r="D113" t="n">
-        <v>26.91699013085665</v>
+        <v>15.90348181062673</v>
       </c>
     </row>
     <row r="114">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C114" t="n">
-        <v>19.62017813894389</v>
+        <v>46.45014667133704</v>
       </c>
       <c r="D114" t="n">
-        <v>9.620178138943892</v>
+        <v>15.54985332866296</v>
       </c>
     </row>
     <row r="115">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>74.13983198870754</v>
+        <v>3.888901808447832</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8601680112924583</v>
+        <v>3.888901808447832</v>
       </c>
     </row>
     <row r="116">
@@ -1987,10 +1987,10 @@
         <v>40</v>
       </c>
       <c r="C116" t="n">
-        <v>47.54898898416029</v>
+        <v>60.27466392467931</v>
       </c>
       <c r="D116" t="n">
-        <v>7.548988984160289</v>
+        <v>20.27466392467931</v>
       </c>
     </row>
     <row r="117">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C117" t="n">
-        <v>67.85191230406633</v>
+        <v>43.31518975968226</v>
       </c>
       <c r="D117" t="n">
-        <v>7.148087695933668</v>
+        <v>6.684810240317738</v>
       </c>
     </row>
     <row r="118">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C118" t="n">
-        <v>2.037236325447221</v>
+        <v>67.96666007004609</v>
       </c>
       <c r="D118" t="n">
-        <v>2.037236325447221</v>
+        <v>7.033339929953911</v>
       </c>
     </row>
     <row r="119">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>56.62365046129151</v>
+        <v>2.748419801957374</v>
       </c>
       <c r="D119" t="n">
-        <v>5.376349538708489</v>
+        <v>2.748419801957374</v>
       </c>
     </row>
     <row r="120">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8137645227814072</v>
+        <v>34.12750910980797</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8137645227814072</v>
+        <v>4.127509109807967</v>
       </c>
     </row>
     <row r="121">
@@ -2057,10 +2057,10 @@
         <v>62</v>
       </c>
       <c r="C121" t="n">
-        <v>62.17567306923298</v>
+        <v>63.47288141973848</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1756730692329782</v>
+        <v>1.472881419738478</v>
       </c>
     </row>
     <row r="122">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C122" t="n">
-        <v>58.39942638981675</v>
+        <v>33.84166698379835</v>
       </c>
       <c r="D122" t="n">
-        <v>3.600573610183247</v>
+        <v>3.841666983798355</v>
       </c>
     </row>
     <row r="123">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.5997001038866155</v>
+        <v>64.78861413070578</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5997001038866155</v>
+        <v>10.21138586929422</v>
       </c>
     </row>
     <row r="124">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C124" t="n">
-        <v>46.27727109372044</v>
+        <v>-2.670149873849201</v>
       </c>
       <c r="D124" t="n">
-        <v>16.27727109372044</v>
+        <v>12.6701498738492</v>
       </c>
     </row>
     <row r="125">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>37.21684643031784</v>
+        <v>3.807371994616915</v>
       </c>
       <c r="D125" t="n">
-        <v>7.216846430317844</v>
+        <v>3.807371994616915</v>
       </c>
     </row>
     <row r="126">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C126" t="n">
-        <v>79.57390945960947</v>
+        <v>35.9134789378437</v>
       </c>
       <c r="D126" t="n">
-        <v>4.573909459609467</v>
+        <v>4.086521062156301</v>
       </c>
     </row>
     <row r="127">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C127" t="n">
-        <v>-1.952612782869925</v>
+        <v>28.91760357011965</v>
       </c>
       <c r="D127" t="n">
-        <v>1.952612782869925</v>
+        <v>33.08239642988035</v>
       </c>
     </row>
     <row r="128">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C128" t="n">
-        <v>43.29490740650103</v>
+        <v>56.75603835973558</v>
       </c>
       <c r="D128" t="n">
-        <v>3.294907406501025</v>
+        <v>5.243961640264416</v>
       </c>
     </row>
     <row r="129">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C129" t="n">
-        <v>69.97317356292888</v>
+        <v>51.88132605504041</v>
       </c>
       <c r="D129" t="n">
-        <v>5.026826437071122</v>
+        <v>10.11867394495959</v>
       </c>
     </row>
     <row r="130">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C130" t="n">
-        <v>82.11897762869513</v>
+        <v>41.07932010311652</v>
       </c>
       <c r="D130" t="n">
-        <v>7.118977628695134</v>
+        <v>11.07932010311652</v>
       </c>
     </row>
     <row r="131">
@@ -2197,10 +2197,10 @@
         <v>30</v>
       </c>
       <c r="C131" t="n">
-        <v>35.73427183282883</v>
+        <v>45.47334908249197</v>
       </c>
       <c r="D131" t="n">
-        <v>5.734271832828831</v>
+        <v>15.47334908249197</v>
       </c>
     </row>
     <row r="132">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>58.78556000252303</v>
+        <v>1.146260405456567</v>
       </c>
       <c r="D132" t="n">
-        <v>8.785560002523027</v>
+        <v>1.146260405456567</v>
       </c>
     </row>
     <row r="133">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C133" t="n">
-        <v>14.35738994209385</v>
+        <v>42.1427605161135</v>
       </c>
       <c r="D133" t="n">
-        <v>5.64261005790615</v>
+        <v>7.857239483886495</v>
       </c>
     </row>
     <row r="134">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C134" t="n">
-        <v>51.12315059994337</v>
+        <v>54.96483710659069</v>
       </c>
       <c r="D134" t="n">
-        <v>11.12315059994337</v>
+        <v>4.964837106590693</v>
       </c>
     </row>
     <row r="135">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>57.15451430187456</v>
+        <v>3.366376697229913</v>
       </c>
       <c r="D135" t="n">
-        <v>4.845485698125444</v>
+        <v>3.366376697229913</v>
       </c>
     </row>
     <row r="136">
@@ -2267,10 +2267,10 @@
         <v>30</v>
       </c>
       <c r="C136" t="n">
-        <v>53.13918492103208</v>
+        <v>36.52676046333232</v>
       </c>
       <c r="D136" t="n">
-        <v>23.13918492103208</v>
+        <v>6.526760463332316</v>
       </c>
     </row>
     <row r="137">
@@ -2281,10 +2281,10 @@
         <v>75</v>
       </c>
       <c r="C137" t="n">
-        <v>65.12372697902063</v>
+        <v>64.26045501650921</v>
       </c>
       <c r="D137" t="n">
-        <v>9.876273020979369</v>
+        <v>10.73954498349079</v>
       </c>
     </row>
     <row r="138">
@@ -2292,13 +2292,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C138" t="n">
-        <v>2.000219611755463</v>
+        <v>28.77479156109015</v>
       </c>
       <c r="D138" t="n">
-        <v>2.000219611755463</v>
+        <v>8.774791561090154</v>
       </c>
     </row>
     <row r="139">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C139" t="n">
-        <v>33.66668262145509</v>
+        <v>83.23739325579527</v>
       </c>
       <c r="D139" t="n">
-        <v>13.66668262145509</v>
+        <v>8.237393255795268</v>
       </c>
     </row>
     <row r="140">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C140" t="n">
-        <v>80.58468927433483</v>
+        <v>38.26069715211969</v>
       </c>
       <c r="D140" t="n">
-        <v>5.584689274334835</v>
+        <v>23.73930284788031</v>
       </c>
     </row>
     <row r="141">
@@ -2337,10 +2337,10 @@
         <v>20</v>
       </c>
       <c r="C141" t="n">
-        <v>27.59420524267162</v>
+        <v>24.77269473526458</v>
       </c>
       <c r="D141" t="n">
-        <v>7.594205242671617</v>
+        <v>4.772694735264583</v>
       </c>
     </row>
     <row r="142">
@@ -2348,13 +2348,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C142" t="n">
-        <v>40.61069999627701</v>
+        <v>40.90808477422716</v>
       </c>
       <c r="D142" t="n">
-        <v>21.38930000372299</v>
+        <v>0.9080847742271558</v>
       </c>
     </row>
     <row r="143">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C143" t="n">
-        <v>14.18646006786326</v>
+        <v>68.71153917290064</v>
       </c>
       <c r="D143" t="n">
-        <v>4.186460067863258</v>
+        <v>18.71153917290064</v>
       </c>
     </row>
     <row r="144">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C144" t="n">
-        <v>46.68217594614109</v>
+        <v>38.81957514981054</v>
       </c>
       <c r="D144" t="n">
-        <v>3.317824053858914</v>
+        <v>8.819575149810539</v>
       </c>
     </row>
     <row r="145">
@@ -2390,13 +2390,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C145" t="n">
-        <v>22.09989277087594</v>
+        <v>46.85040695938547</v>
       </c>
       <c r="D145" t="n">
-        <v>2.09989277087594</v>
+        <v>6.850406959385467</v>
       </c>
     </row>
     <row r="146">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C146" t="n">
-        <v>44.61703282759247</v>
+        <v>18.12870162636074</v>
       </c>
       <c r="D146" t="n">
-        <v>4.617032827592475</v>
+        <v>1.871298373639263</v>
       </c>
     </row>
     <row r="147">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C147" t="n">
-        <v>78.96967209040072</v>
+        <v>27.10479368047887</v>
       </c>
       <c r="D147" t="n">
-        <v>3.969672090400721</v>
+        <v>7.104793680478874</v>
       </c>
     </row>
     <row r="148">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C148" t="n">
-        <v>46.84778999382162</v>
+        <v>10.5758828597635</v>
       </c>
       <c r="D148" t="n">
-        <v>28.15221000617838</v>
+        <v>0.5758828597634995</v>
       </c>
     </row>
     <row r="149">
@@ -2449,10 +2449,10 @@
         <v>62</v>
       </c>
       <c r="C149" t="n">
-        <v>52.02764736295494</v>
+        <v>52.55250616107003</v>
       </c>
       <c r="D149" t="n">
-        <v>9.972352637045063</v>
+        <v>9.447493838929965</v>
       </c>
     </row>
     <row r="150">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>49.68293560354111</v>
+        <v>3.034238155606058</v>
       </c>
       <c r="D150" t="n">
-        <v>25.31706439645889</v>
+        <v>3.034238155606058</v>
       </c>
     </row>
     <row r="151">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>36.76005415634901</v>
+        <v>-0.09526921551334622</v>
       </c>
       <c r="D151" t="n">
-        <v>3.239945843650986</v>
+        <v>0.09526921551334622</v>
       </c>
     </row>
     <row r="152">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C152" t="n">
-        <v>48.40831823169753</v>
+        <v>18.31925610865323</v>
       </c>
       <c r="D152" t="n">
-        <v>8.408318231697528</v>
+        <v>1.680743891346768</v>
       </c>
     </row>
     <row r="153">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C153" t="n">
-        <v>49.66494631009823</v>
+        <v>61.52478270911533</v>
       </c>
       <c r="D153" t="n">
-        <v>12.33505368990177</v>
+        <v>13.47521729088467</v>
       </c>
     </row>
     <row r="154">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C154" t="n">
-        <v>14.76728880074459</v>
+        <v>42.22960157390931</v>
       </c>
       <c r="D154" t="n">
-        <v>5.232711199255405</v>
+        <v>7.770398426090686</v>
       </c>
     </row>
     <row r="155">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C155" t="n">
-        <v>7.233777881476972</v>
+        <v>46.7349626827556</v>
       </c>
       <c r="D155" t="n">
-        <v>2.766222118523028</v>
+        <v>6.734962682755601</v>
       </c>
     </row>
     <row r="156">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C156" t="n">
-        <v>38.00713218501659</v>
+        <v>47.76917217398961</v>
       </c>
       <c r="D156" t="n">
-        <v>8.007132185016587</v>
+        <v>7.76917217398961</v>
       </c>
     </row>
     <row r="157">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C157" t="n">
-        <v>3.28042419533447</v>
+        <v>50.93791876751915</v>
       </c>
       <c r="D157" t="n">
-        <v>3.28042419533447</v>
+        <v>10.93791876751915</v>
       </c>
     </row>
     <row r="158">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C158" t="n">
-        <v>57.23589605695579</v>
+        <v>57.70846960631163</v>
       </c>
       <c r="D158" t="n">
-        <v>17.23589605695579</v>
+        <v>4.291530393688369</v>
       </c>
     </row>
     <row r="159">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C159" t="n">
-        <v>59.16121026810502</v>
+        <v>8.125961776440198</v>
       </c>
       <c r="D159" t="n">
-        <v>2.838789731894984</v>
+        <v>31.8740382235598</v>
       </c>
     </row>
     <row r="160">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>47.31904332933835</v>
+        <v>0.9474264121527192</v>
       </c>
       <c r="D160" t="n">
-        <v>17.31904332933835</v>
+        <v>0.9474264121527192</v>
       </c>
     </row>
     <row r="161">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C161" t="n">
-        <v>1.071037538479136</v>
+        <v>31.95612895038155</v>
       </c>
       <c r="D161" t="n">
-        <v>1.071037538479136</v>
+        <v>11.95612895038155</v>
       </c>
     </row>
     <row r="162">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C162" t="n">
-        <v>59.39465875972267</v>
+        <v>47.78806370644843</v>
       </c>
       <c r="D162" t="n">
-        <v>2.605341240277333</v>
+        <v>17.78806370644843</v>
       </c>
     </row>
     <row r="163">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C163" t="n">
-        <v>23.152344102498</v>
+        <v>32.75133006659892</v>
       </c>
       <c r="D163" t="n">
-        <v>3.152344102498002</v>
+        <v>2.751330066598918</v>
       </c>
     </row>
     <row r="164">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C164" t="n">
-        <v>21.02717368121729</v>
+        <v>50.58617230725309</v>
       </c>
       <c r="D164" t="n">
-        <v>1.027173681217292</v>
+        <v>0.5861723072530864</v>
       </c>
     </row>
     <row r="165">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>12.91090800632166</v>
+        <v>0.5836449493168994</v>
       </c>
       <c r="D165" t="n">
-        <v>2.910908006321662</v>
+        <v>0.5836449493168994</v>
       </c>
     </row>
     <row r="166">
@@ -2687,10 +2687,10 @@
         <v>75</v>
       </c>
       <c r="C166" t="n">
-        <v>64.52850646606889</v>
+        <v>61.18032043015571</v>
       </c>
       <c r="D166" t="n">
-        <v>10.47149353393111</v>
+        <v>13.81967956984429</v>
       </c>
     </row>
     <row r="167">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>65.03419422374073</v>
+        <v>1.612936043360135</v>
       </c>
       <c r="D167" t="n">
-        <v>15.03419422374073</v>
+        <v>1.612936043360135</v>
       </c>
     </row>
     <row r="168">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C168" t="n">
-        <v>6.126926251486946</v>
+        <v>57.65067481949004</v>
       </c>
       <c r="D168" t="n">
-        <v>3.873073748513054</v>
+        <v>4.349325180509958</v>
       </c>
     </row>
     <row r="169">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>53.07399547710123</v>
+        <v>3.345205984105901</v>
       </c>
       <c r="D169" t="n">
-        <v>23.07399547710123</v>
+        <v>3.345205984105901</v>
       </c>
     </row>
     <row r="170">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C170" t="n">
-        <v>42.80395599249678</v>
+        <v>54.17901020287116</v>
       </c>
       <c r="D170" t="n">
-        <v>7.196044007503218</v>
+        <v>20.82098979712884</v>
       </c>
     </row>
     <row r="171">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C171" t="n">
-        <v>1.032181780357684</v>
+        <v>63.21679600856746</v>
       </c>
       <c r="D171" t="n">
-        <v>1.032181780357684</v>
+        <v>11.78320399143254</v>
       </c>
     </row>
     <row r="172">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C172" t="n">
-        <v>50.87911377518795</v>
+        <v>74.79516299618598</v>
       </c>
       <c r="D172" t="n">
-        <v>20.87911377518795</v>
+        <v>0.2048370038140206</v>
       </c>
     </row>
     <row r="173">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C173" t="n">
-        <v>68.01000909633987</v>
+        <v>48.88259440175474</v>
       </c>
       <c r="D173" t="n">
-        <v>6.989990903660129</v>
+        <v>8.882594401754737</v>
       </c>
     </row>
     <row r="174">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C174" t="n">
-        <v>13.54750000608701</v>
+        <v>42.1212793226127</v>
       </c>
       <c r="D174" t="n">
-        <v>3.547500006087009</v>
+        <v>7.8787206773873</v>
       </c>
     </row>
     <row r="175">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C175" t="n">
-        <v>32.57793171519329</v>
+        <v>50.95955188492653</v>
       </c>
       <c r="D175" t="n">
-        <v>42.42206828480671</v>
+        <v>0.9595518849265332</v>
       </c>
     </row>
     <row r="176">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C176" t="n">
-        <v>3.968786608139011</v>
+        <v>16.70576127657744</v>
       </c>
       <c r="D176" t="n">
-        <v>3.968786608139011</v>
+        <v>3.294238723422559</v>
       </c>
     </row>
     <row r="177">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C177" t="n">
-        <v>2.131941071394953</v>
+        <v>61.60735399423341</v>
       </c>
       <c r="D177" t="n">
-        <v>2.131941071394953</v>
+        <v>13.39264600576659</v>
       </c>
     </row>
     <row r="178">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C178" t="n">
-        <v>33.23151697272522</v>
+        <v>59.05600945039955</v>
       </c>
       <c r="D178" t="n">
-        <v>41.76848302727478</v>
+        <v>9.05600945039955</v>
       </c>
     </row>
     <row r="179">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C179" t="n">
-        <v>50.34535336422569</v>
+        <v>51.61907935803464</v>
       </c>
       <c r="D179" t="n">
-        <v>11.65464663577431</v>
+        <v>1.619079358034639</v>
       </c>
     </row>
     <row r="180">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C180" t="n">
-        <v>69.83540754836321</v>
+        <v>15.87010209121079</v>
       </c>
       <c r="D180" t="n">
-        <v>5.164592451636793</v>
+        <v>4.129897908789209</v>
       </c>
     </row>
     <row r="181">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C181" t="n">
-        <v>26.56781562266196</v>
+        <v>50.22345605883196</v>
       </c>
       <c r="D181" t="n">
-        <v>16.56781562266196</v>
+        <v>10.22345605883196</v>
       </c>
     </row>
     <row r="182">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C182" t="n">
-        <v>32.96782645050808</v>
+        <v>10.91689194817737</v>
       </c>
       <c r="D182" t="n">
-        <v>7.032173549491922</v>
+        <v>0.9168919481773656</v>
       </c>
     </row>
     <row r="183">
@@ -2925,10 +2925,10 @@
         <v>75</v>
       </c>
       <c r="C183" t="n">
-        <v>66.48722645015026</v>
+        <v>77.59510616951388</v>
       </c>
       <c r="D183" t="n">
-        <v>8.51277354984974</v>
+        <v>2.595106169513883</v>
       </c>
     </row>
     <row r="184">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C184" t="n">
-        <v>2.244925590991012</v>
+        <v>51.52872633910452</v>
       </c>
       <c r="D184" t="n">
-        <v>2.244925590991012</v>
+        <v>10.47127366089548</v>
       </c>
     </row>
     <row r="185">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>47.74813326367873</v>
+        <v>4.122286912243021</v>
       </c>
       <c r="D185" t="n">
-        <v>7.748133263678731</v>
+        <v>4.122286912243021</v>
       </c>
     </row>
     <row r="186">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C186" t="n">
-        <v>40.11659589154185</v>
+        <v>37.20883095585179</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1165958915418486</v>
+        <v>7.208830955851788</v>
       </c>
     </row>
     <row r="187">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C187" t="n">
-        <v>28.13594256104688</v>
+        <v>24.52751330697843</v>
       </c>
       <c r="D187" t="n">
-        <v>18.13594256104688</v>
+        <v>5.472486693021565</v>
       </c>
     </row>
     <row r="188">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C188" t="n">
-        <v>27.59250135319611</v>
+        <v>37.24365442944064</v>
       </c>
       <c r="D188" t="n">
-        <v>47.40749864680389</v>
+        <v>12.75634557055936</v>
       </c>
     </row>
     <row r="189">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C189" t="n">
-        <v>9.85905689227476</v>
+        <v>52.31626603634789</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1409431077252403</v>
+        <v>2.316266036347891</v>
       </c>
     </row>
     <row r="190">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C190" t="n">
-        <v>0.970337593525705</v>
+        <v>14.40847521548119</v>
       </c>
       <c r="D190" t="n">
-        <v>0.970337593525705</v>
+        <v>4.408475215481189</v>
       </c>
     </row>
     <row r="191">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C191" t="n">
-        <v>18.20517371505258</v>
+        <v>68.27651622918677</v>
       </c>
       <c r="D191" t="n">
-        <v>8.205173715052585</v>
+        <v>6.723483770813232</v>
       </c>
     </row>
     <row r="192">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C192" t="n">
-        <v>3.027602808346361</v>
+        <v>43.51658574732682</v>
       </c>
       <c r="D192" t="n">
-        <v>3.027602808346361</v>
+        <v>6.483414252673178</v>
       </c>
     </row>
     <row r="193">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C193" t="n">
-        <v>16.23890542520153</v>
+        <v>39.92013886835666</v>
       </c>
       <c r="D193" t="n">
-        <v>6.23890542520153</v>
+        <v>9.920138868356659</v>
       </c>
     </row>
     <row r="194">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C194" t="n">
-        <v>44.47126308327445</v>
+        <v>33.77101601769906</v>
       </c>
       <c r="D194" t="n">
-        <v>30.52873691672555</v>
+        <v>3.771016017699061</v>
       </c>
     </row>
     <row r="195">
@@ -3093,10 +3093,10 @@
         <v>40</v>
       </c>
       <c r="C195" t="n">
-        <v>37.58186875395009</v>
+        <v>61.5372041927024</v>
       </c>
       <c r="D195" t="n">
-        <v>2.41813124604991</v>
+        <v>21.5372041927024</v>
       </c>
     </row>
     <row r="196">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C196" t="n">
-        <v>43.52130343866126</v>
+        <v>26.41761053502162</v>
       </c>
       <c r="D196" t="n">
-        <v>13.52130343866126</v>
+        <v>16.41761053502162</v>
       </c>
     </row>
     <row r="197">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C197" t="n">
-        <v>58.54353363776958</v>
+        <v>50.03918975631721</v>
       </c>
       <c r="D197" t="n">
-        <v>3.456466362230422</v>
+        <v>0.03918975631720656</v>
       </c>
     </row>
     <row r="198">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C198" t="n">
-        <v>68.36859328322622</v>
+        <v>64.08712799607699</v>
       </c>
       <c r="D198" t="n">
-        <v>6.631406716773782</v>
+        <v>24.08712799607699</v>
       </c>
     </row>
     <row r="199">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C199" t="n">
-        <v>41.55076530301123</v>
+        <v>37.46426420128297</v>
       </c>
       <c r="D199" t="n">
-        <v>8.449234696988768</v>
+        <v>7.464264201282965</v>
       </c>
     </row>
     <row r="200">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C200" t="n">
-        <v>44.2064054871273</v>
+        <v>25.01343814541617</v>
       </c>
       <c r="D200" t="n">
-        <v>4.206405487127299</v>
+        <v>5.013438145416174</v>
       </c>
     </row>
     <row r="201">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C201" t="n">
-        <v>26.02994599503432</v>
+        <v>54.61245382085158</v>
       </c>
       <c r="D201" t="n">
-        <v>6.029945995034321</v>
+        <v>7.387546179148423</v>
       </c>
     </row>
     <row r="202">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C202" t="n">
-        <v>38.91758646826606</v>
+        <v>54.59035618065065</v>
       </c>
       <c r="D202" t="n">
-        <v>8.917586468266059</v>
+        <v>7.409643819349348</v>
       </c>
     </row>
     <row r="203">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C203" t="n">
-        <v>25.66038905567574</v>
+        <v>56.0696910914917</v>
       </c>
       <c r="D203" t="n">
-        <v>14.33961094432426</v>
+        <v>5.930308908508302</v>
       </c>
     </row>
     <row r="204">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C204" t="n">
-        <v>39.71972912365693</v>
+        <v>25.61533069251197</v>
       </c>
       <c r="D204" t="n">
-        <v>35.28027087634307</v>
+        <v>14.38466930748803</v>
       </c>
     </row>
     <row r="205">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C205" t="n">
-        <v>44.6181148970341</v>
+        <v>40.791545388523</v>
       </c>
       <c r="D205" t="n">
-        <v>4.618114897034104</v>
+        <v>10.791545388523</v>
       </c>
     </row>
     <row r="206">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C206" t="n">
-        <v>43.34596397103228</v>
+        <v>21.61785690210999</v>
       </c>
       <c r="D206" t="n">
-        <v>6.654036028967724</v>
+        <v>1.617856902109992</v>
       </c>
     </row>
     <row r="207">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C207" t="n">
-        <v>45.80129267468244</v>
+        <v>51.53776628284622</v>
       </c>
       <c r="D207" t="n">
-        <v>29.19870732531756</v>
+        <v>10.46223371715378</v>
       </c>
     </row>
     <row r="208">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C208" t="n">
-        <v>10.10483531341271</v>
+        <v>51.96184468297446</v>
       </c>
       <c r="D208" t="n">
-        <v>0.1048353134127087</v>
+        <v>1.961844682974458</v>
       </c>
     </row>
     <row r="209">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>18.9429907426196</v>
+        <v>1.964296776398569</v>
       </c>
       <c r="D209" t="n">
-        <v>1.057009257380404</v>
+        <v>1.964296776398569</v>
       </c>
     </row>
     <row r="210">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C210" t="n">
-        <v>9.848164067025177</v>
+        <v>31.38868761743668</v>
       </c>
       <c r="D210" t="n">
-        <v>0.1518359329748229</v>
+        <v>8.611312382563316</v>
       </c>
     </row>
     <row r="211">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C211" t="n">
-        <v>12.15877284125014</v>
+        <v>48.60821015428806</v>
       </c>
       <c r="D211" t="n">
-        <v>7.841227158749859</v>
+        <v>8.608210154288059</v>
       </c>
     </row>
     <row r="212">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C212" t="n">
-        <v>3.489234393034003</v>
+        <v>34.85159845157997</v>
       </c>
       <c r="D212" t="n">
-        <v>3.489234393034003</v>
+        <v>4.851598451579967</v>
       </c>
     </row>
     <row r="213">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.1285268734603187</v>
+        <v>56.56154992592468</v>
       </c>
       <c r="D213" t="n">
-        <v>0.1285268734603187</v>
+        <v>16.56154992592468</v>
       </c>
     </row>
     <row r="214">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C214" t="n">
-        <v>44.67765818127909</v>
+        <v>44.39892164066048</v>
       </c>
       <c r="D214" t="n">
-        <v>4.677658181279085</v>
+        <v>5.601078359339525</v>
       </c>
     </row>
     <row r="215">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C215" t="n">
-        <v>53.528793510985</v>
+        <v>7.608100456243264</v>
       </c>
       <c r="D215" t="n">
-        <v>23.528793510985</v>
+        <v>2.391899543756736</v>
       </c>
     </row>
     <row r="216">
@@ -3387,10 +3387,10 @@
         <v>40</v>
       </c>
       <c r="C216" t="n">
-        <v>43.15296853732498</v>
+        <v>37.60106684380597</v>
       </c>
       <c r="D216" t="n">
-        <v>3.152968537324981</v>
+        <v>2.398933156194033</v>
       </c>
     </row>
     <row r="217">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C217" t="n">
-        <v>68.03786459633112</v>
+        <v>37.41691714314243</v>
       </c>
       <c r="D217" t="n">
-        <v>6.962135403668881</v>
+        <v>7.416917143142435</v>
       </c>
     </row>
     <row r="218">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C218" t="n">
-        <v>26.55338818981801</v>
+        <v>48.84892186382613</v>
       </c>
       <c r="D218" t="n">
-        <v>6.553388189818012</v>
+        <v>8.848921863826128</v>
       </c>
     </row>
     <row r="219">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C219" t="n">
-        <v>2.432177359917</v>
+        <v>32.77458152746082</v>
       </c>
       <c r="D219" t="n">
-        <v>2.432177359917</v>
+        <v>2.774581527460818</v>
       </c>
     </row>
     <row r="220">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C220" t="n">
-        <v>94.70813048978566</v>
+        <v>-6.490962788220988</v>
       </c>
       <c r="D220" t="n">
-        <v>19.70813048978566</v>
+        <v>16.49096278822099</v>
       </c>
     </row>
     <row r="221">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C221" t="n">
-        <v>62.27950982886782</v>
+        <v>54.93836552744239</v>
       </c>
       <c r="D221" t="n">
-        <v>12.27950982886782</v>
+        <v>20.06163447255761</v>
       </c>
     </row>
     <row r="222">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C222" t="n">
-        <v>41.49873705691622</v>
+        <v>48.85364201370282</v>
       </c>
       <c r="D222" t="n">
-        <v>20.50126294308378</v>
+        <v>1.146357986297183</v>
       </c>
     </row>
     <row r="223">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C223" t="n">
-        <v>5.889654851743639</v>
+        <v>47.65481313644454</v>
       </c>
       <c r="D223" t="n">
-        <v>5.889654851743639</v>
+        <v>7.654813136444538</v>
       </c>
     </row>
     <row r="224">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C224" t="n">
-        <v>15.04428767802027</v>
+        <v>29.66494454568576</v>
       </c>
       <c r="D224" t="n">
-        <v>5.044287678020272</v>
+        <v>9.664944545685756</v>
       </c>
     </row>
     <row r="225">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C225" t="n">
-        <v>0.7128680555859727</v>
+        <v>16.69912941517762</v>
       </c>
       <c r="D225" t="n">
-        <v>0.7128680555859727</v>
+        <v>6.699129415177616</v>
       </c>
     </row>
     <row r="226">
@@ -3527,10 +3527,10 @@
         <v>30</v>
       </c>
       <c r="C226" t="n">
-        <v>34.07842694981527</v>
+        <v>43.06342737660847</v>
       </c>
       <c r="D226" t="n">
-        <v>4.078426949815267</v>
+        <v>13.06342737660847</v>
       </c>
     </row>
     <row r="227">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>38.67961511518948</v>
+        <v>2.514393895037654</v>
       </c>
       <c r="D227" t="n">
-        <v>8.679615115189478</v>
+        <v>2.514393895037654</v>
       </c>
     </row>
     <row r="228">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C228" t="n">
-        <v>3.516750337039145</v>
+        <v>80.12526422188694</v>
       </c>
       <c r="D228" t="n">
-        <v>6.483249662960855</v>
+        <v>5.125264221886937</v>
       </c>
     </row>
     <row r="229">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C229" t="n">
-        <v>20.53162859254901</v>
+        <v>18.61662352281678</v>
       </c>
       <c r="D229" t="n">
-        <v>10.53162859254901</v>
+        <v>1.383376477183223</v>
       </c>
     </row>
     <row r="230">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C230" t="n">
-        <v>24.71066998796026</v>
+        <v>16.18723736978456</v>
       </c>
       <c r="D230" t="n">
-        <v>4.710669987960255</v>
+        <v>6.187237369784562</v>
       </c>
     </row>
     <row r="231">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C231" t="n">
-        <v>7.354762004346552</v>
+        <v>8.480912814200913</v>
       </c>
       <c r="D231" t="n">
-        <v>12.64523799565345</v>
+        <v>1.519087185799087</v>
       </c>
     </row>
     <row r="232">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C232" t="n">
-        <v>0.6552608514756532</v>
+        <v>53.31557162396025</v>
       </c>
       <c r="D232" t="n">
-        <v>0.6552608514756532</v>
+        <v>13.31557162396025</v>
       </c>
     </row>
     <row r="233">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C233" t="n">
-        <v>47.75716410918069</v>
+        <v>42.7913801483331</v>
       </c>
       <c r="D233" t="n">
-        <v>14.24283589081931</v>
+        <v>12.7913801483331</v>
       </c>
     </row>
     <row r="234">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>52.24917249660938</v>
+        <v>5.484821295866352</v>
       </c>
       <c r="D234" t="n">
-        <v>2.249172496609383</v>
+        <v>5.484821295866352</v>
       </c>
     </row>
     <row r="235">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C235" t="n">
-        <v>48.95703481385635</v>
+        <v>0.914926702265106</v>
       </c>
       <c r="D235" t="n">
-        <v>8.957034813856353</v>
+        <v>9.085073297734894</v>
       </c>
     </row>
     <row r="236">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C236" t="n">
-        <v>65.83519777699698</v>
+        <v>16.41128327003692</v>
       </c>
       <c r="D236" t="n">
-        <v>9.164802223003022</v>
+        <v>6.411283270036918</v>
       </c>
     </row>
     <row r="237">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C237" t="n">
-        <v>67.56577403580162</v>
+        <v>53.09650894101618</v>
       </c>
       <c r="D237" t="n">
-        <v>7.434225964198376</v>
+        <v>8.903491058983825</v>
       </c>
     </row>
     <row r="238">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C238" t="n">
-        <v>5.724295777266897</v>
+        <v>57.28915324465054</v>
       </c>
       <c r="D238" t="n">
-        <v>14.2757042227331</v>
+        <v>4.710846755349458</v>
       </c>
     </row>
     <row r="239">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>43.19973945795129</v>
+        <v>0.004325686664815365</v>
       </c>
       <c r="D239" t="n">
-        <v>18.80026054204871</v>
+        <v>0.004325686664815365</v>
       </c>
     </row>
     <row r="240">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C240" t="n">
-        <v>50.07799822659496</v>
+        <v>59.21798351496712</v>
       </c>
       <c r="D240" t="n">
-        <v>20.07799822659496</v>
+        <v>15.78201648503288</v>
       </c>
     </row>
     <row r="241">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>45.1495893285912</v>
+        <v>3.089676209883203</v>
       </c>
       <c r="D241" t="n">
-        <v>4.850410671408795</v>
+        <v>3.089676209883203</v>
       </c>
     </row>
     <row r="242">
@@ -3751,10 +3751,10 @@
         <v>75</v>
       </c>
       <c r="C242" t="n">
-        <v>72.54754313055514</v>
+        <v>73.55108437624031</v>
       </c>
       <c r="D242" t="n">
-        <v>2.452456869444859</v>
+        <v>1.448915623759689</v>
       </c>
     </row>
     <row r="243">
@@ -3765,10 +3765,10 @@
         <v>40</v>
       </c>
       <c r="C243" t="n">
-        <v>48.74757067936915</v>
+        <v>26.94500876480665</v>
       </c>
       <c r="D243" t="n">
-        <v>8.747570679369147</v>
+        <v>13.05499123519335</v>
       </c>
     </row>
     <row r="244">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C244" t="n">
-        <v>40.36909162673717</v>
+        <v>2.234746702247406</v>
       </c>
       <c r="D244" t="n">
-        <v>10.36909162673717</v>
+        <v>7.765253297752594</v>
       </c>
     </row>
     <row r="245">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C245" t="n">
-        <v>69.51912056819411</v>
+        <v>41.6527047261178</v>
       </c>
       <c r="D245" t="n">
-        <v>5.480879431805889</v>
+        <v>21.6527047261178</v>
       </c>
     </row>
     <row r="246">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C246" t="n">
-        <v>51.12411842695849</v>
+        <v>54.18412755189568</v>
       </c>
       <c r="D246" t="n">
-        <v>10.87588157304151</v>
+        <v>20.81587244810432</v>
       </c>
     </row>
     <row r="247">
@@ -3818,13 +3818,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C247" t="n">
-        <v>55.68574416881239</v>
+        <v>43.19438351368537</v>
       </c>
       <c r="D247" t="n">
-        <v>5.685744168812391</v>
+        <v>13.19438351368537</v>
       </c>
     </row>
     <row r="248">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C248" t="n">
-        <v>12.97442211622779</v>
+        <v>25.95294711055024</v>
       </c>
       <c r="D248" t="n">
-        <v>2.974422116227789</v>
+        <v>5.952947110550237</v>
       </c>
     </row>
     <row r="249">
@@ -3846,13 +3846,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C249" t="n">
-        <v>20.05543884629726</v>
+        <v>43.94262813530355</v>
       </c>
       <c r="D249" t="n">
-        <v>10.05543884629726</v>
+        <v>23.94262813530355</v>
       </c>
     </row>
     <row r="250">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C250" t="n">
-        <v>34.33247792351625</v>
+        <v>2.061924571121143</v>
       </c>
       <c r="D250" t="n">
-        <v>4.332477923516251</v>
+        <v>7.938075428878857</v>
       </c>
     </row>
     <row r="251">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C251" t="n">
-        <v>38.36572029713294</v>
+        <v>60.05309751227885</v>
       </c>
       <c r="D251" t="n">
-        <v>8.365720297132938</v>
+        <v>14.94690248772115</v>
       </c>
     </row>
     <row r="252">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C252" t="n">
-        <v>51.71244473221333</v>
+        <v>5.512540062525401</v>
       </c>
       <c r="D252" t="n">
-        <v>10.28755526778667</v>
+        <v>14.4874599374746</v>
       </c>
     </row>
     <row r="253">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C253" t="n">
-        <v>35.03893062706009</v>
+        <v>45.57736489049285</v>
       </c>
       <c r="D253" t="n">
-        <v>15.03893062706009</v>
+        <v>4.422635109507155</v>
       </c>
     </row>
     <row r="254">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C254" t="n">
-        <v>5.119718170927515</v>
+        <v>54.21917478063213</v>
       </c>
       <c r="D254" t="n">
-        <v>5.119718170927515</v>
+        <v>7.78082521936787</v>
       </c>
     </row>
     <row r="255">
@@ -3933,10 +3933,10 @@
         <v>50</v>
       </c>
       <c r="C255" t="n">
-        <v>50.86557184016314</v>
+        <v>40.43457736509641</v>
       </c>
       <c r="D255" t="n">
-        <v>0.8655718401631418</v>
+        <v>9.565422634903591</v>
       </c>
     </row>
     <row r="256">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C256" t="n">
-        <v>14.83453543374381</v>
+        <v>47.26377513024839</v>
       </c>
       <c r="D256" t="n">
-        <v>4.834535433743806</v>
+        <v>14.73622486975161</v>
       </c>
     </row>
     <row r="257">
@@ -3961,10 +3961,10 @@
         <v>20</v>
       </c>
       <c r="C257" t="n">
-        <v>17.04524120966169</v>
+        <v>31.06153261465897</v>
       </c>
       <c r="D257" t="n">
-        <v>2.954758790338307</v>
+        <v>11.06153261465897</v>
       </c>
     </row>
     <row r="258">
@@ -3972,13 +3972,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C258" t="n">
-        <v>47.68546469140193</v>
+        <v>56.83606071108581</v>
       </c>
       <c r="D258" t="n">
-        <v>7.685464691401926</v>
+        <v>5.163939288914186</v>
       </c>
     </row>
     <row r="259">
@@ -3989,10 +3989,10 @@
         <v>20</v>
       </c>
       <c r="C259" t="n">
-        <v>28.98951629197773</v>
+        <v>23.55856801807175</v>
       </c>
       <c r="D259" t="n">
-        <v>8.989516291977733</v>
+        <v>3.558568018071753</v>
       </c>
     </row>
     <row r="260">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C260" t="n">
-        <v>50.79621199275498</v>
+        <v>70.14982537386493</v>
       </c>
       <c r="D260" t="n">
-        <v>0.7962119927549836</v>
+        <v>4.850174626135072</v>
       </c>
     </row>
     <row r="261">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C261" t="n">
-        <v>37.43842141270687</v>
+        <v>20.50506945275498</v>
       </c>
       <c r="D261" t="n">
-        <v>37.56157858729313</v>
+        <v>0.5050694527549808</v>
       </c>
     </row>
     <row r="262">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C262" t="n">
-        <v>4.670263954319854</v>
+        <v>43.68070142945058</v>
       </c>
       <c r="D262" t="n">
-        <v>5.329736045680146</v>
+        <v>3.680701429450579</v>
       </c>
     </row>
     <row r="263">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C263" t="n">
-        <v>63.79780066540189</v>
+        <v>25.55228636993333</v>
       </c>
       <c r="D263" t="n">
-        <v>11.20219933459811</v>
+        <v>5.552286369933331</v>
       </c>
     </row>
     <row r="264">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>63.58887246012085</v>
+        <v>3.729969996873961</v>
       </c>
       <c r="D264" t="n">
-        <v>1.588872460120854</v>
+        <v>3.729969996873961</v>
       </c>
     </row>
     <row r="265">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C265" t="n">
-        <v>2.661894933497546</v>
+        <v>49.17279499386169</v>
       </c>
       <c r="D265" t="n">
-        <v>2.661894933497546</v>
+        <v>12.82720500613831</v>
       </c>
     </row>
     <row r="266">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C266" t="n">
-        <v>64.1503153383772</v>
+        <v>23.83542820763621</v>
       </c>
       <c r="D266" t="n">
-        <v>2.150315338377197</v>
+        <v>3.835428207636209</v>
       </c>
     </row>
     <row r="267">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C267" t="n">
-        <v>1.486827055868501</v>
+        <v>41.48536094286503</v>
       </c>
       <c r="D267" t="n">
-        <v>1.486827055868501</v>
+        <v>11.48536094286503</v>
       </c>
     </row>
     <row r="268">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C268" t="n">
-        <v>53.46832303698749</v>
+        <v>23.5458079703024</v>
       </c>
       <c r="D268" t="n">
-        <v>8.531676963012508</v>
+        <v>13.5458079703024</v>
       </c>
     </row>
     <row r="269">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C269" t="n">
-        <v>59.17040675135643</v>
+        <v>16.44587549049333</v>
       </c>
       <c r="D269" t="n">
-        <v>2.829593248643569</v>
+        <v>6.445875490493332</v>
       </c>
     </row>
     <row r="270">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>2.225250047037939</v>
+        <v>2.415027029646687</v>
       </c>
       <c r="D270" t="n">
-        <v>17.77474995296206</v>
+        <v>2.415027029646687</v>
       </c>
     </row>
     <row r="271">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C271" t="n">
-        <v>10.14333122885653</v>
+        <v>31.3129216538177</v>
       </c>
       <c r="D271" t="n">
-        <v>0.1433312288565318</v>
+        <v>8.6870783461823</v>
       </c>
     </row>
     <row r="272">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C272" t="n">
-        <v>41.94705584538966</v>
+        <v>60.95978170364541</v>
       </c>
       <c r="D272" t="n">
-        <v>11.94705584538966</v>
+        <v>14.04021829635459</v>
       </c>
     </row>
     <row r="273">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>63.13521697214</v>
+        <v>4.206773008574887</v>
       </c>
       <c r="D273" t="n">
-        <v>13.13521697214</v>
+        <v>4.206773008574887</v>
       </c>
     </row>
     <row r="274">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C274" t="n">
-        <v>16.44926849989446</v>
+        <v>5.771978515542916</v>
       </c>
       <c r="D274" t="n">
-        <v>6.449268499894458</v>
+        <v>14.22802148445708</v>
       </c>
     </row>
     <row r="275">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C275" t="n">
-        <v>50.39693795300771</v>
+        <v>25.88520223950635</v>
       </c>
       <c r="D275" t="n">
-        <v>0.3969379530077148</v>
+        <v>5.885202239506352</v>
       </c>
     </row>
     <row r="276">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C276" t="n">
-        <v>8.975193646717297</v>
+        <v>49.1078666569714</v>
       </c>
       <c r="D276" t="n">
-        <v>11.0248063532827</v>
+        <v>19.1078666569714</v>
       </c>
     </row>
     <row r="277">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>-2.300201747214839</v>
+        <v>2.244281689991313</v>
       </c>
       <c r="D277" t="n">
-        <v>12.30020174721484</v>
+        <v>2.244281689991313</v>
       </c>
     </row>
     <row r="278">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C278" t="n">
-        <v>2.023989349731705</v>
+        <v>67.46644918086645</v>
       </c>
       <c r="D278" t="n">
-        <v>7.976010650268295</v>
+        <v>7.533550819133552</v>
       </c>
     </row>
     <row r="279">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C279" t="n">
-        <v>18.66557819694292</v>
+        <v>43.75132087448604</v>
       </c>
       <c r="D279" t="n">
-        <v>8.665578196942921</v>
+        <v>3.751320874486041</v>
       </c>
     </row>
     <row r="280">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C280" t="n">
-        <v>46.50492755147813</v>
+        <v>5.671464662449131</v>
       </c>
       <c r="D280" t="n">
-        <v>28.49507244852187</v>
+        <v>14.32853533755087</v>
       </c>
     </row>
     <row r="281">
@@ -4294,13 +4294,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>40.07636858819871</v>
+        <v>2.768499645510867</v>
       </c>
       <c r="D281" t="n">
-        <v>0.07636858819871151</v>
+        <v>2.768499645510867</v>
       </c>
     </row>
     <row r="282">
@@ -4308,13 +4308,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C282" t="n">
-        <v>8.852984341518962</v>
+        <v>48.69048732048038</v>
       </c>
       <c r="D282" t="n">
-        <v>11.14701565848104</v>
+        <v>8.690487320480379</v>
       </c>
     </row>
     <row r="283">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C283" t="n">
-        <v>47.63117871945056</v>
+        <v>62.74739225702349</v>
       </c>
       <c r="D283" t="n">
-        <v>7.63117871945056</v>
+        <v>12.25260774297651</v>
       </c>
     </row>
     <row r="284">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C284" t="n">
-        <v>43.73603874981232</v>
+        <v>50.90040330407349</v>
       </c>
       <c r="D284" t="n">
-        <v>3.736038749812323</v>
+        <v>11.09959669592651</v>
       </c>
     </row>
     <row r="285">
@@ -4353,10 +4353,10 @@
         <v>50</v>
       </c>
       <c r="C285" t="n">
-        <v>51.0831335613456</v>
+        <v>49.53649751820699</v>
       </c>
       <c r="D285" t="n">
-        <v>1.083133561345598</v>
+        <v>0.4635024817930145</v>
       </c>
     </row>
     <row r="286">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C286" t="n">
-        <v>1.998647168832845</v>
+        <v>48.21123208361288</v>
       </c>
       <c r="D286" t="n">
-        <v>1.998647168832845</v>
+        <v>26.78876791638712</v>
       </c>
     </row>
     <row r="287">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C287" t="n">
-        <v>1.991727775129356</v>
+        <v>55.80515335619204</v>
       </c>
       <c r="D287" t="n">
-        <v>1.991727775129356</v>
+        <v>19.19484664380796</v>
       </c>
     </row>
     <row r="288">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C288" t="n">
-        <v>44.10890708367743</v>
+        <v>62.61091192950174</v>
       </c>
       <c r="D288" t="n">
-        <v>4.10890708367743</v>
+        <v>0.6109119295017393</v>
       </c>
     </row>
     <row r="289">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>15.82268662593991</v>
+        <v>0.4462733091928288</v>
       </c>
       <c r="D289" t="n">
-        <v>5.822686625939909</v>
+        <v>0.4462733091928288</v>
       </c>
     </row>
     <row r="290">
@@ -4423,10 +4423,10 @@
         <v>75</v>
       </c>
       <c r="C290" t="n">
-        <v>80.36062813022406</v>
+        <v>59.09044875660791</v>
       </c>
       <c r="D290" t="n">
-        <v>5.360628130224057</v>
+        <v>15.90955124339209</v>
       </c>
     </row>
     <row r="291">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C291" t="n">
-        <v>31.53619773424044</v>
+        <v>35.13575622466626</v>
       </c>
       <c r="D291" t="n">
-        <v>1.536197734240439</v>
+        <v>14.86424377533374</v>
       </c>
     </row>
     <row r="292">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C292" t="n">
-        <v>72.83083377919027</v>
+        <v>52.87053806299044</v>
       </c>
       <c r="D292" t="n">
-        <v>2.169166220809728</v>
+        <v>9.129461937009559</v>
       </c>
     </row>
     <row r="293">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C293" t="n">
-        <v>65.78414877183862</v>
+        <v>57.51823153380737</v>
       </c>
       <c r="D293" t="n">
-        <v>3.784148771838616</v>
+        <v>7.518231533807374</v>
       </c>
     </row>
     <row r="294">
@@ -4479,10 +4479,10 @@
         <v>50</v>
       </c>
       <c r="C294" t="n">
-        <v>53.87373289565559</v>
+        <v>43.68918501410956</v>
       </c>
       <c r="D294" t="n">
-        <v>3.873732895655593</v>
+        <v>6.310814985890438</v>
       </c>
     </row>
     <row r="295">
@@ -4490,13 +4490,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C295" t="n">
-        <v>28.93363919953529</v>
+        <v>43.61337802843241</v>
       </c>
       <c r="D295" t="n">
-        <v>11.06636080046471</v>
+        <v>18.38662197156759</v>
       </c>
     </row>
     <row r="296">
@@ -4504,13 +4504,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C296" t="n">
-        <v>24.26310208255231</v>
+        <v>49.7283051134394</v>
       </c>
       <c r="D296" t="n">
-        <v>14.26310208255231</v>
+        <v>12.2716948865606</v>
       </c>
     </row>
     <row r="297">
@@ -4521,10 +4521,10 @@
         <v>30</v>
       </c>
       <c r="C297" t="n">
-        <v>20.87792060907581</v>
+        <v>41.20115053058232</v>
       </c>
       <c r="D297" t="n">
-        <v>9.122079390924188</v>
+        <v>11.20115053058232</v>
       </c>
     </row>
     <row r="298">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C298" t="n">
-        <v>3.939613581631576</v>
+        <v>18.25921127437778</v>
       </c>
       <c r="D298" t="n">
-        <v>3.939613581631576</v>
+        <v>1.74078872562222</v>
       </c>
     </row>
     <row r="299">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C299" t="n">
-        <v>2.60905935198456</v>
+        <v>46.29798072182133</v>
       </c>
       <c r="D299" t="n">
-        <v>2.60905935198456</v>
+        <v>6.297980721821325</v>
       </c>
     </row>
     <row r="300">
@@ -4563,10 +4563,10 @@
         <v>50</v>
       </c>
       <c r="C300" t="n">
-        <v>47.14641274609174</v>
+        <v>50.71422933164519</v>
       </c>
       <c r="D300" t="n">
-        <v>2.853587253908259</v>
+        <v>0.7142293316451926</v>
       </c>
     </row>
     <row r="301">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C301" t="n">
-        <v>35.62332493892182</v>
+        <v>50.73219433037024</v>
       </c>
       <c r="D301" t="n">
-        <v>15.62332493892182</v>
+        <v>11.26780566962976</v>
       </c>
     </row>
     <row r="302">
@@ -4588,13 +4588,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>38.52598281561003</v>
+        <v>3.059016065798562</v>
       </c>
       <c r="D302" t="n">
-        <v>11.47401718438997</v>
+        <v>3.059016065798562</v>
       </c>
     </row>
     <row r="303">
@@ -4602,13 +4602,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C303" t="n">
-        <v>44.29439133302913</v>
+        <v>17.67203463090146</v>
       </c>
       <c r="D303" t="n">
-        <v>14.29439133302913</v>
+        <v>7.672034630901464</v>
       </c>
     </row>
     <row r="304">
@@ -4616,13 +4616,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C304" t="n">
-        <v>41.95596971538561</v>
+        <v>47.2395980955955</v>
       </c>
       <c r="D304" t="n">
-        <v>11.95596971538561</v>
+        <v>14.7604019044045</v>
       </c>
     </row>
     <row r="305">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>25.77606750832145</v>
+        <v>3.66642473692367</v>
       </c>
       <c r="D305" t="n">
-        <v>4.223932491678546</v>
+        <v>3.66642473692367</v>
       </c>
     </row>
     <row r="306">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C306" t="n">
-        <v>63.58652419042435</v>
+        <v>38.96634118222723</v>
       </c>
       <c r="D306" t="n">
-        <v>1.586524190424349</v>
+        <v>8.966341182227225</v>
       </c>
     </row>
     <row r="307">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C307" t="n">
-        <v>83.35720868879052</v>
+        <v>45.51714019008796</v>
       </c>
       <c r="D307" t="n">
-        <v>8.357208688790521</v>
+        <v>16.48285980991204</v>
       </c>
     </row>
     <row r="308">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C308" t="n">
-        <v>45.51362370178875</v>
+        <v>52.73984141012563</v>
       </c>
       <c r="D308" t="n">
-        <v>29.48637629821125</v>
+        <v>12.73984141012563</v>
       </c>
     </row>
     <row r="309">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C309" t="n">
-        <v>4.941736664086933</v>
+        <v>44.50608833868054</v>
       </c>
       <c r="D309" t="n">
-        <v>4.941736664086933</v>
+        <v>4.506088338680541</v>
       </c>
     </row>
     <row r="310">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C310" t="n">
-        <v>46.03574866298906</v>
+        <v>42.83313468492149</v>
       </c>
       <c r="D310" t="n">
-        <v>6.035748662989064</v>
+        <v>7.16686531507851</v>
       </c>
     </row>
     <row r="311">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C311" t="n">
-        <v>20.88417281627839</v>
+        <v>32.33272266770663</v>
       </c>
       <c r="D311" t="n">
-        <v>10.88417281627839</v>
+        <v>7.667277332293366</v>
       </c>
     </row>
     <row r="312">
@@ -4728,13 +4728,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C312" t="n">
-        <v>41.42101028510451</v>
+        <v>-0.006303786634994424</v>
       </c>
       <c r="D312" t="n">
-        <v>11.42101028510451</v>
+        <v>10.00630378663499</v>
       </c>
     </row>
     <row r="313">
@@ -4745,10 +4745,10 @@
         <v>62</v>
       </c>
       <c r="C313" t="n">
-        <v>48.97560886156047</v>
+        <v>55.36015068012254</v>
       </c>
       <c r="D313" t="n">
-        <v>13.02439113843953</v>
+        <v>6.639849319877456</v>
       </c>
     </row>
     <row r="314">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C314" t="n">
-        <v>0.3440026037893252</v>
+        <v>31.49451918415037</v>
       </c>
       <c r="D314" t="n">
-        <v>0.3440026037893252</v>
+        <v>11.49451918415037</v>
       </c>
     </row>
     <row r="315">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C315" t="n">
-        <v>59.82899251818061</v>
+        <v>29.32161181345047</v>
       </c>
       <c r="D315" t="n">
-        <v>15.17100748181939</v>
+        <v>9.321611813450467</v>
       </c>
     </row>
     <row r="316">
@@ -4787,10 +4787,10 @@
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>-0.1468150395615747</v>
+        <v>2.56817722718324</v>
       </c>
       <c r="D316" t="n">
-        <v>0.1468150395615747</v>
+        <v>2.56817722718324</v>
       </c>
     </row>
     <row r="317">
@@ -4798,13 +4798,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C317" t="n">
-        <v>51.27321091899569</v>
+        <v>5.763327288044245</v>
       </c>
       <c r="D317" t="n">
-        <v>1.273210918995694</v>
+        <v>4.236672711955755</v>
       </c>
     </row>
     <row r="318">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>46.90777560928596</v>
+        <v>-2.595600861499537</v>
       </c>
       <c r="D318" t="n">
-        <v>6.907775609285956</v>
+        <v>2.595600861499537</v>
       </c>
     </row>
     <row r="319">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>55.47615074886878</v>
+        <v>3.928887528081713</v>
       </c>
       <c r="D319" t="n">
-        <v>6.523849251131224</v>
+        <v>3.928887528081713</v>
       </c>
     </row>
     <row r="320">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C320" t="n">
-        <v>46.19160911376102</v>
+        <v>36.70661833467096</v>
       </c>
       <c r="D320" t="n">
-        <v>3.808390886238982</v>
+        <v>6.706618334670956</v>
       </c>
     </row>
     <row r="321">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>40.96112639732437</v>
+        <v>1.603075852193684</v>
       </c>
       <c r="D321" t="n">
-        <v>0.9611263973243709</v>
+        <v>1.603075852193684</v>
       </c>
     </row>
     <row r="322">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C322" t="n">
-        <v>62.39450573738113</v>
+        <v>28.87688673757042</v>
       </c>
       <c r="D322" t="n">
-        <v>0.3945057373811309</v>
+        <v>8.876886737570416</v>
       </c>
     </row>
     <row r="323">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>43.21787954712414</v>
+        <v>6.210617543228859</v>
       </c>
       <c r="D323" t="n">
-        <v>18.78212045287586</v>
+        <v>6.210617543228859</v>
       </c>
     </row>
     <row r="324">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C324" t="n">
-        <v>45.58116846888634</v>
+        <v>49.13550689377497</v>
       </c>
       <c r="D324" t="n">
-        <v>5.581168468886339</v>
+        <v>12.86449310622503</v>
       </c>
     </row>
     <row r="325">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C325" t="n">
-        <v>71.14712459256776</v>
+        <v>47.3726054901216</v>
       </c>
       <c r="D325" t="n">
-        <v>3.852875407432236</v>
+        <v>14.6273945098784</v>
       </c>
     </row>
     <row r="326">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>39.95698711938434</v>
+        <v>-1.843921042830571</v>
       </c>
       <c r="D326" t="n">
-        <v>0.04301288061566311</v>
+        <v>1.843921042830571</v>
       </c>
     </row>
     <row r="327">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C327" t="n">
-        <v>83.0453856100295</v>
+        <v>42.50794986339066</v>
       </c>
       <c r="D327" t="n">
-        <v>8.045385610029498</v>
+        <v>2.507949863390664</v>
       </c>
     </row>
     <row r="328">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C328" t="n">
-        <v>35.89878726624846</v>
+        <v>46.44724601196993</v>
       </c>
       <c r="D328" t="n">
-        <v>5.898787266248462</v>
+        <v>6.447246011969931</v>
       </c>
     </row>
     <row r="329">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C329" t="n">
-        <v>25.72420893431222</v>
+        <v>51.91631813412308</v>
       </c>
       <c r="D329" t="n">
-        <v>15.72420893431222</v>
+        <v>10.08368186587692</v>
       </c>
     </row>
     <row r="330">
@@ -4983,10 +4983,10 @@
         <v>30</v>
       </c>
       <c r="C330" t="n">
-        <v>36.49418995865835</v>
+        <v>44.7231591163892</v>
       </c>
       <c r="D330" t="n">
-        <v>6.494189958658353</v>
+        <v>14.7231591163892</v>
       </c>
     </row>
     <row r="331">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>3.873357448325592</v>
+        <v>4.907899467071211</v>
       </c>
       <c r="D331" t="n">
-        <v>6.126642551674408</v>
+        <v>4.907899467071211</v>
       </c>
     </row>
     <row r="332">
@@ -5011,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>2.274735835546031</v>
+        <v>0.8268045602346974</v>
       </c>
       <c r="D332" t="n">
-        <v>2.274735835546031</v>
+        <v>0.8268045602346974</v>
       </c>
     </row>
     <row r="333">
@@ -5025,10 +5025,10 @@
         <v>50</v>
       </c>
       <c r="C333" t="n">
-        <v>54.93801068538293</v>
+        <v>40.1117726960036</v>
       </c>
       <c r="D333" t="n">
-        <v>4.938010685382928</v>
+        <v>9.888227303996402</v>
       </c>
     </row>
     <row r="334">
@@ -5036,13 +5036,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C334" t="n">
-        <v>24.67964491185822</v>
+        <v>74.21284388465608</v>
       </c>
       <c r="D334" t="n">
-        <v>14.67964491185822</v>
+        <v>0.7871561153439188</v>
       </c>
     </row>
     <row r="335">
@@ -5053,10 +5053,10 @@
         <v>50</v>
       </c>
       <c r="C335" t="n">
-        <v>48.79747201478861</v>
+        <v>63.35983555983334</v>
       </c>
       <c r="D335" t="n">
-        <v>1.20252798521139</v>
+        <v>13.35983555983334</v>
       </c>
     </row>
     <row r="336">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C336" t="n">
-        <v>57.01433551536324</v>
+        <v>27.57633342632355</v>
       </c>
       <c r="D336" t="n">
-        <v>4.985664484636764</v>
+        <v>2.423666573676449</v>
       </c>
     </row>
     <row r="337">
@@ -5081,10 +5081,10 @@
         <v>30</v>
       </c>
       <c r="C337" t="n">
-        <v>19.29823497601859</v>
+        <v>39.10506662579062</v>
       </c>
       <c r="D337" t="n">
-        <v>10.70176502398141</v>
+        <v>9.10506662579062</v>
       </c>
     </row>
     <row r="338">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C338" t="n">
-        <v>39.28893334752205</v>
+        <v>27.19572880136433</v>
       </c>
       <c r="D338" t="n">
-        <v>9.288933347522054</v>
+        <v>7.195728801364329</v>
       </c>
     </row>
     <row r="339">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C339" t="n">
-        <v>0.3242128145256256</v>
+        <v>19.76638814203123</v>
       </c>
       <c r="D339" t="n">
-        <v>0.3242128145256256</v>
+        <v>0.2336118579687678</v>
       </c>
     </row>
     <row r="340">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C340" t="n">
-        <v>57.57873719344178</v>
+        <v>66.09266826067957</v>
       </c>
       <c r="D340" t="n">
-        <v>7.578737193441782</v>
+        <v>8.907331739320426</v>
       </c>
     </row>
     <row r="341">
@@ -5137,10 +5137,10 @@
         <v>10</v>
       </c>
       <c r="C341" t="n">
-        <v>15.38314919324598</v>
+        <v>18.92178351304258</v>
       </c>
       <c r="D341" t="n">
-        <v>5.383149193245984</v>
+        <v>8.92178351304258</v>
       </c>
     </row>
     <row r="342">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C342" t="n">
-        <v>58.87515651670407</v>
+        <v>49.82733904217178</v>
       </c>
       <c r="D342" t="n">
-        <v>16.12484348329593</v>
+        <v>9.827339042171779</v>
       </c>
     </row>
     <row r="343">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>9.024407197931408</v>
+        <v>3.24879477682158</v>
       </c>
       <c r="D343" t="n">
-        <v>0.9755928020685918</v>
+        <v>3.24879477682158</v>
       </c>
     </row>
     <row r="344">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C344" t="n">
-        <v>61.68558286872933</v>
+        <v>64.75896229137561</v>
       </c>
       <c r="D344" t="n">
-        <v>11.68558286872933</v>
+        <v>10.24103770862439</v>
       </c>
     </row>
     <row r="345">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C345" t="n">
-        <v>15.05681809374764</v>
+        <v>39.42802358584176</v>
       </c>
       <c r="D345" t="n">
-        <v>4.943181906252358</v>
+        <v>9.428023585841757</v>
       </c>
     </row>
     <row r="346">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C346" t="n">
-        <v>56.45529794733039</v>
+        <v>1.3615845310539</v>
       </c>
       <c r="D346" t="n">
-        <v>6.455297947330394</v>
+        <v>8.6384154689461</v>
       </c>
     </row>
     <row r="347">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C347" t="n">
-        <v>3.569196140683354</v>
+        <v>33.93314630847139</v>
       </c>
       <c r="D347" t="n">
-        <v>6.430803859316646</v>
+        <v>3.933146308471386</v>
       </c>
     </row>
     <row r="348">
@@ -5235,10 +5235,10 @@
         <v>20</v>
       </c>
       <c r="C348" t="n">
-        <v>19.59823685252655</v>
+        <v>4.371216444351974</v>
       </c>
       <c r="D348" t="n">
-        <v>0.4017631474734493</v>
+        <v>15.62878355564803</v>
       </c>
     </row>
     <row r="349">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C349" t="n">
-        <v>52.73111775057416</v>
+        <v>8.526594143648477</v>
       </c>
       <c r="D349" t="n">
-        <v>2.731117750574157</v>
+        <v>1.473405856351523</v>
       </c>
     </row>
     <row r="350">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C350" t="n">
-        <v>23.05940417434336</v>
+        <v>9.041007776712302</v>
       </c>
       <c r="D350" t="n">
-        <v>3.059404174343364</v>
+        <v>0.958992223287698</v>
       </c>
     </row>
     <row r="351">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C351" t="n">
-        <v>38.56966731562629</v>
+        <v>31.54467060816091</v>
       </c>
       <c r="D351" t="n">
-        <v>8.56966731562629</v>
+        <v>8.455329391839086</v>
       </c>
     </row>
     <row r="352">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C352" t="n">
-        <v>68.85035770114736</v>
+        <v>33.13999136878569</v>
       </c>
       <c r="D352" t="n">
-        <v>6.14964229885264</v>
+        <v>6.860008631214306</v>
       </c>
     </row>
     <row r="353">
@@ -5302,13 +5302,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C353" t="n">
-        <v>61.37378881261554</v>
+        <v>59.50485845832927</v>
       </c>
       <c r="D353" t="n">
-        <v>0.626211187384456</v>
+        <v>9.504858458329274</v>
       </c>
     </row>
     <row r="354">
@@ -5319,10 +5319,10 @@
         <v>10</v>
       </c>
       <c r="C354" t="n">
-        <v>5.017880650947337</v>
+        <v>4.33091388787075</v>
       </c>
       <c r="D354" t="n">
-        <v>4.982119349052663</v>
+        <v>5.66908611212925</v>
       </c>
     </row>
     <row r="355">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C355" t="n">
-        <v>20.48374155730364</v>
+        <v>65.64960137672313</v>
       </c>
       <c r="D355" t="n">
-        <v>10.48374155730364</v>
+        <v>9.350398623276874</v>
       </c>
     </row>
     <row r="356">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C356" t="n">
-        <v>24.44822648934617</v>
+        <v>36.94585759260586</v>
       </c>
       <c r="D356" t="n">
-        <v>4.448226489346172</v>
+        <v>13.05414240739414</v>
       </c>
     </row>
     <row r="357">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C357" t="n">
-        <v>38.03806313258551</v>
+        <v>4.820070445657755</v>
       </c>
       <c r="D357" t="n">
-        <v>8.038063132585506</v>
+        <v>5.179929554342245</v>
       </c>
     </row>
     <row r="358">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C358" t="n">
-        <v>16.64524472301308</v>
+        <v>45.61034833591844</v>
       </c>
       <c r="D358" t="n">
-        <v>6.645244723013075</v>
+        <v>4.389651664081562</v>
       </c>
     </row>
     <row r="359">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>38.6278576825502</v>
+        <v>-0.7459875745198081</v>
       </c>
       <c r="D359" t="n">
-        <v>8.6278576825502</v>
+        <v>0.7459875745198081</v>
       </c>
     </row>
     <row r="360">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C360" t="n">
-        <v>37.80465656557897</v>
+        <v>46.6737084294105</v>
       </c>
       <c r="D360" t="n">
-        <v>7.804656565578973</v>
+        <v>6.673708429410503</v>
       </c>
     </row>
     <row r="361">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C361" t="n">
-        <v>14.32025053649766</v>
+        <v>6.01751568039132</v>
       </c>
       <c r="D361" t="n">
-        <v>5.679749463502343</v>
+        <v>3.98248431960868</v>
       </c>
     </row>
     <row r="362">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C362" t="n">
-        <v>28.30807294697323</v>
+        <v>33.06658396055984</v>
       </c>
       <c r="D362" t="n">
-        <v>8.308072946973226</v>
+        <v>3.066583960559839</v>
       </c>
     </row>
     <row r="363">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C363" t="n">
-        <v>24.61518468884656</v>
+        <v>13.10665626728881</v>
       </c>
       <c r="D363" t="n">
-        <v>5.384815311153439</v>
+        <v>3.106656267288813</v>
       </c>
     </row>
     <row r="364">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C364" t="n">
-        <v>5.245426667940856</v>
+        <v>21.71116638087127</v>
       </c>
       <c r="D364" t="n">
-        <v>5.245426667940856</v>
+        <v>1.711166380871269</v>
       </c>
     </row>
     <row r="365">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C365" t="n">
-        <v>11.02744803291586</v>
+        <v>34.82402643103719</v>
       </c>
       <c r="D365" t="n">
-        <v>1.02744803291586</v>
+        <v>4.82402643103719</v>
       </c>
     </row>
     <row r="366">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C366" t="n">
-        <v>50.92815979113213</v>
+        <v>33.2594490475811</v>
       </c>
       <c r="D366" t="n">
-        <v>0.9281597911321313</v>
+        <v>3.2594490475811</v>
       </c>
     </row>
     <row r="367">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C367" t="n">
-        <v>36.20228071637696</v>
+        <v>49.31364593224654</v>
       </c>
       <c r="D367" t="n">
-        <v>13.79771928362304</v>
+        <v>12.68635406775346</v>
       </c>
     </row>
     <row r="368">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C368" t="n">
-        <v>30.33101613178627</v>
+        <v>53.74870904257791</v>
       </c>
       <c r="D368" t="n">
-        <v>10.33101613178627</v>
+        <v>3.748709042577914</v>
       </c>
     </row>
     <row r="369">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C369" t="n">
-        <v>-1.920712856798238</v>
+        <v>55.1642454732131</v>
       </c>
       <c r="D369" t="n">
-        <v>1.920712856798238</v>
+        <v>5.1642454732131</v>
       </c>
     </row>
     <row r="370">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C370" t="n">
-        <v>24.98057150349378</v>
+        <v>36.81887017086706</v>
       </c>
       <c r="D370" t="n">
-        <v>14.98057150349378</v>
+        <v>13.18112982913294</v>
       </c>
     </row>
     <row r="371">
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>2.933047309708986</v>
+        <v>-3.098262996272834</v>
       </c>
       <c r="D371" t="n">
-        <v>2.933047309708986</v>
+        <v>3.098262996272834</v>
       </c>
     </row>
     <row r="372">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C372" t="n">
-        <v>27.77580103947204</v>
+        <v>48.11931444136813</v>
       </c>
       <c r="D372" t="n">
-        <v>17.77580103947204</v>
+        <v>26.88068555863187</v>
       </c>
     </row>
     <row r="373">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C373" t="n">
-        <v>59.93091943311935</v>
+        <v>50.107101659831</v>
       </c>
       <c r="D373" t="n">
-        <v>2.06908056688065</v>
+        <v>10.107101659831</v>
       </c>
     </row>
     <row r="374">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>39.12808554008355</v>
+        <v>1.134878024932151</v>
       </c>
       <c r="D374" t="n">
-        <v>9.128085540083553</v>
+        <v>1.134878024932151</v>
       </c>
     </row>
     <row r="375">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C375" t="n">
-        <v>37.86371753940534</v>
+        <v>12.78967399103063</v>
       </c>
       <c r="D375" t="n">
-        <v>7.863717539405336</v>
+        <v>2.789673991030632</v>
       </c>
     </row>
     <row r="376">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C376" t="n">
-        <v>6.332923998247113</v>
+        <v>10.53358218945199</v>
       </c>
       <c r="D376" t="n">
-        <v>13.66707600175289</v>
+        <v>0.5335821894519874</v>
       </c>
     </row>
     <row r="377">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C377" t="n">
-        <v>29.49641981501136</v>
+        <v>2.866109217302721</v>
       </c>
       <c r="D377" t="n">
-        <v>9.496419815011357</v>
+        <v>7.133890782697279</v>
       </c>
     </row>
     <row r="378">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C378" t="n">
-        <v>56.14589769299833</v>
+        <v>38.66925663320698</v>
       </c>
       <c r="D378" t="n">
-        <v>5.854102307001668</v>
+        <v>8.669256633206977</v>
       </c>
     </row>
     <row r="379">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>3.797361521485199</v>
+        <v>2.417147542651608</v>
       </c>
       <c r="D379" t="n">
-        <v>6.202638478514801</v>
+        <v>2.417147542651608</v>
       </c>
     </row>
     <row r="380">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C380" t="n">
-        <v>2.011529620709126</v>
+        <v>47.55194915735415</v>
       </c>
       <c r="D380" t="n">
-        <v>7.988470379290874</v>
+        <v>7.551949157354152</v>
       </c>
     </row>
     <row r="381">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C381" t="n">
-        <v>12.95045491848873</v>
+        <v>32.49370859173222</v>
       </c>
       <c r="D381" t="n">
-        <v>7.049545081511273</v>
+        <v>2.493708591732215</v>
       </c>
     </row>
     <row r="382">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C382" t="n">
-        <v>45.90568217005706</v>
+        <v>67.70365925606848</v>
       </c>
       <c r="D382" t="n">
-        <v>15.90568217005706</v>
+        <v>7.296340743931523</v>
       </c>
     </row>
     <row r="383">
@@ -5725,10 +5725,10 @@
         <v>40</v>
       </c>
       <c r="C383" t="n">
-        <v>49.18253359574062</v>
+        <v>48.11530967649747</v>
       </c>
       <c r="D383" t="n">
-        <v>9.182533595740622</v>
+        <v>8.115309676497468</v>
       </c>
     </row>
     <row r="384">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C384" t="n">
-        <v>52.26555351888229</v>
+        <v>7.420703918062806</v>
       </c>
       <c r="D384" t="n">
-        <v>2.265553518882285</v>
+        <v>2.579296081937194</v>
       </c>
     </row>
     <row r="385">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>29.58921403983916</v>
+        <v>4.042049947433624</v>
       </c>
       <c r="D385" t="n">
-        <v>0.4107859601608368</v>
+        <v>4.042049947433624</v>
       </c>
     </row>
     <row r="386">
@@ -5767,10 +5767,10 @@
         <v>40</v>
       </c>
       <c r="C386" t="n">
-        <v>50.03334961526195</v>
+        <v>48.50390907342065</v>
       </c>
       <c r="D386" t="n">
-        <v>10.03334961526195</v>
+        <v>8.503909073420651</v>
       </c>
     </row>
     <row r="387">
@@ -5781,10 +5781,10 @@
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>4.225470746032162</v>
+        <v>3.767005907998803</v>
       </c>
       <c r="D387" t="n">
-        <v>4.225470746032162</v>
+        <v>3.767005907998803</v>
       </c>
     </row>
     <row r="388">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C388" t="n">
-        <v>49.17293794157803</v>
+        <v>34.54931319465483</v>
       </c>
       <c r="D388" t="n">
-        <v>12.82706205842197</v>
+        <v>4.549313194654829</v>
       </c>
     </row>
     <row r="389">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C389" t="n">
-        <v>2.189865104968896</v>
+        <v>-7.716435776296567</v>
       </c>
       <c r="D389" t="n">
-        <v>2.189865104968896</v>
+        <v>17.71643577629657</v>
       </c>
     </row>
     <row r="390">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C390" t="n">
-        <v>56.06399211270456</v>
+        <v>25.37097759431522</v>
       </c>
       <c r="D390" t="n">
-        <v>6.063992112704561</v>
+        <v>5.370977594315224</v>
       </c>
     </row>
     <row r="391">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C391" t="n">
-        <v>70.42942015164728</v>
+        <v>7.851551709414611</v>
       </c>
       <c r="D391" t="n">
-        <v>4.570579848352722</v>
+        <v>2.148448290585389</v>
       </c>
     </row>
     <row r="392">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C392" t="n">
-        <v>43.28395356161889</v>
+        <v>25.52858098790909</v>
       </c>
       <c r="D392" t="n">
-        <v>6.716046438381113</v>
+        <v>5.528580987909091</v>
       </c>
     </row>
     <row r="393">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C393" t="n">
-        <v>38.69051307363906</v>
+        <v>18.59813485359701</v>
       </c>
       <c r="D393" t="n">
-        <v>8.69051307363906</v>
+        <v>8.59813485359701</v>
       </c>
     </row>
     <row r="394">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C394" t="n">
-        <v>3.855659161247346</v>
+        <v>10.46959365847286</v>
       </c>
       <c r="D394" t="n">
-        <v>3.855659161247346</v>
+        <v>0.4695936584728599</v>
       </c>
     </row>
     <row r="395">
@@ -5893,10 +5893,10 @@
         <v>20</v>
       </c>
       <c r="C395" t="n">
-        <v>19.12316091016563</v>
+        <v>22.94058357745719</v>
       </c>
       <c r="D395" t="n">
-        <v>0.8768390898343696</v>
+        <v>2.94058357745719</v>
       </c>
     </row>
     <row r="396">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C396" t="n">
-        <v>31.20481497506456</v>
+        <v>58.51508746893311</v>
       </c>
       <c r="D396" t="n">
-        <v>11.20481497506456</v>
+        <v>8.51508746893311</v>
       </c>
     </row>
     <row r="397">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>64.03951263290821</v>
+        <v>4.1859129105812</v>
       </c>
       <c r="D397" t="n">
-        <v>10.96048736709179</v>
+        <v>4.1859129105812</v>
       </c>
     </row>
     <row r="398">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C398" t="n">
-        <v>26.27714268133966</v>
+        <v>59.44816057920155</v>
       </c>
       <c r="D398" t="n">
-        <v>6.277142681339658</v>
+        <v>15.55183942079845</v>
       </c>
     </row>
     <row r="399">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>55.28373899375781</v>
+        <v>2.478714338696373</v>
       </c>
       <c r="D399" t="n">
-        <v>6.716261006242192</v>
+        <v>2.478714338696373</v>
       </c>
     </row>
     <row r="400">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>56.44567864854233</v>
+        <v>-0.657952278966933</v>
       </c>
       <c r="D400" t="n">
-        <v>26.44567864854233</v>
+        <v>0.657952278966933</v>
       </c>
     </row>
     <row r="401">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C401" t="n">
-        <v>27.10062380436863</v>
+        <v>8.277778346495428</v>
       </c>
       <c r="D401" t="n">
-        <v>7.100623804368634</v>
+        <v>1.722221653504572</v>
       </c>
     </row>
     <row r="402">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C402" t="n">
-        <v>43.0732843449967</v>
+        <v>48.24934283209031</v>
       </c>
       <c r="D402" t="n">
-        <v>31.9267156550033</v>
+        <v>13.75065716790969</v>
       </c>
     </row>
     <row r="403">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C403" t="n">
-        <v>48.67197851505672</v>
+        <v>34.7177358516092</v>
       </c>
       <c r="D403" t="n">
-        <v>8.671978515056722</v>
+        <v>14.7177358516092</v>
       </c>
     </row>
     <row r="404">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C404" t="n">
-        <v>64.07101973405929</v>
+        <v>34.25209050803246</v>
       </c>
       <c r="D404" t="n">
-        <v>10.92898026594071</v>
+        <v>4.25209050803246</v>
       </c>
     </row>
     <row r="405">
@@ -6030,377 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C405" t="n">
-        <v>32.58899929162561</v>
+        <v>35.58405027619582</v>
       </c>
       <c r="D405" t="n">
-        <v>7.411000708374388</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>62</v>
-      </c>
-      <c r="C406" t="n">
-        <v>56.82055880740706</v>
-      </c>
-      <c r="D406" t="n">
-        <v>5.17944119259294</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>20</v>
-      </c>
-      <c r="C407" t="n">
-        <v>30.41097810877756</v>
-      </c>
-      <c r="D407" t="n">
-        <v>10.41097810877756</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>75</v>
-      </c>
-      <c r="C408" t="n">
-        <v>75.05288993788702</v>
-      </c>
-      <c r="D408" t="n">
-        <v>0.05288993788701646</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>50</v>
-      </c>
-      <c r="C409" t="n">
-        <v>44.63122250485829</v>
-      </c>
-      <c r="D409" t="n">
-        <v>5.368777495141707</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>75</v>
-      </c>
-      <c r="C410" t="n">
-        <v>40.15967492716332</v>
-      </c>
-      <c r="D410" t="n">
-        <v>34.84032507283668</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>40</v>
-      </c>
-      <c r="C411" t="n">
-        <v>51.80765129819061</v>
-      </c>
-      <c r="D411" t="n">
-        <v>11.80765129819061</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>30</v>
-      </c>
-      <c r="C412" t="n">
-        <v>36.16055552839796</v>
-      </c>
-      <c r="D412" t="n">
-        <v>6.160555528397957</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>10</v>
-      </c>
-      <c r="C413" t="n">
-        <v>13.57610235075371</v>
-      </c>
-      <c r="D413" t="n">
-        <v>3.576102350753711</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>0</v>
-      </c>
-      <c r="C414" t="n">
-        <v>2.934793891234817</v>
-      </c>
-      <c r="D414" t="n">
-        <v>2.934793891234817</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>75</v>
-      </c>
-      <c r="C415" t="n">
-        <v>78.10053533998514</v>
-      </c>
-      <c r="D415" t="n">
-        <v>3.100535339985143</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>40</v>
-      </c>
-      <c r="C416" t="n">
-        <v>38.94718148216307</v>
-      </c>
-      <c r="D416" t="n">
-        <v>1.052818517836933</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>10</v>
-      </c>
-      <c r="C417" t="n">
-        <v>15.65707125028069</v>
-      </c>
-      <c r="D417" t="n">
-        <v>5.657071250280691</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>30</v>
-      </c>
-      <c r="C418" t="n">
-        <v>52.15167103526798</v>
-      </c>
-      <c r="D418" t="n">
-        <v>22.15167103526798</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>40</v>
-      </c>
-      <c r="C419" t="n">
-        <v>37.84942946401561</v>
-      </c>
-      <c r="D419" t="n">
-        <v>2.150570535984386</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>10</v>
-      </c>
-      <c r="C420" t="n">
-        <v>15.79830201309294</v>
-      </c>
-      <c r="D420" t="n">
-        <v>5.798302013092936</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>30</v>
-      </c>
-      <c r="C421" t="n">
-        <v>34.29774192375947</v>
-      </c>
-      <c r="D421" t="n">
-        <v>4.297741923759467</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>20</v>
-      </c>
-      <c r="C422" t="n">
-        <v>30.47503570108732</v>
-      </c>
-      <c r="D422" t="n">
-        <v>10.47503570108732</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>10</v>
-      </c>
-      <c r="C423" t="n">
-        <v>6.715729641495129</v>
-      </c>
-      <c r="D423" t="n">
-        <v>3.284270358504871</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>50</v>
-      </c>
-      <c r="C424" t="n">
-        <v>58.04863081053423</v>
-      </c>
-      <c r="D424" t="n">
-        <v>8.048630810534235</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>40</v>
-      </c>
-      <c r="C425" t="n">
-        <v>31.75470124490562</v>
-      </c>
-      <c r="D425" t="n">
-        <v>8.245298755094378</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>0</v>
-      </c>
-      <c r="C426" t="n">
-        <v>3.145659901116174</v>
-      </c>
-      <c r="D426" t="n">
-        <v>3.145659901116174</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>10</v>
-      </c>
-      <c r="C427" t="n">
-        <v>0.9096342987933603</v>
-      </c>
-      <c r="D427" t="n">
-        <v>9.09036570120664</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>75</v>
-      </c>
-      <c r="C428" t="n">
-        <v>53.76475014389383</v>
-      </c>
-      <c r="D428" t="n">
-        <v>21.23524985610617</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>20</v>
-      </c>
-      <c r="C429" t="n">
-        <v>32.46145653113638</v>
-      </c>
-      <c r="D429" t="n">
-        <v>12.46145653113638</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>20</v>
-      </c>
-      <c r="C430" t="n">
-        <v>12.5344002861599</v>
-      </c>
-      <c r="D430" t="n">
-        <v>7.465599713840099</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>40</v>
-      </c>
-      <c r="C431" t="n">
-        <v>49.95581592689341</v>
-      </c>
-      <c r="D431" t="n">
-        <v>9.955815926893408</v>
+        <v>5.584050276195825</v>
       </c>
     </row>
   </sheetData>
